--- a/ExcelTemplate/FO-EHS-016 BITÁCORA DE GENERACIÓN RESIDUOS PELIGROSOS.xlsx
+++ b/ExcelTemplate/FO-EHS-016 BITÁCORA DE GENERACIÓN RESIDUOS PELIGROSOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Resuidos\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD204D9A-313E-403A-BF6C-AA44993CA6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F8529-3D77-40B4-826C-4C17F409AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{9A3DF532-6ADA-4925-B5F0-839A93DCDA48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A3DF532-6ADA-4925-B5F0-839A93DCDA48}"/>
   </bookViews>
   <sheets>
     <sheet name="BITACORA RP" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,6 @@
     <definedName name="_f">#REF!</definedName>
     <definedName name="_GoA1">[0]!_GoA1</definedName>
     <definedName name="a">[1]System!$A$1:$Q$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BITACORA RP'!$A$1:$J$21</definedName>
     <definedName name="Capture.Capture">[0]!Capture.Capture</definedName>
     <definedName name="d">'[1]System Sheet'!$A$1:$L$43</definedName>
     <definedName name="e">#REF!</definedName>
@@ -84,6 +83,7 @@
     <definedName name="ek">#REF!</definedName>
     <definedName name="epe">#REF!</definedName>
     <definedName name="ez">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BITACORA RP'!$A$1:$J$21</definedName>
     <definedName name="Seite">#REF!</definedName>
     <definedName name="SPC_Sheet1_1">[2]Sheet3!$C$5:$L$7</definedName>
     <definedName name="SPC_Sheet2_1">[2]Sheet3!$C$5:$L$7</definedName>
@@ -223,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +242,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -270,81 +276,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -409,32 +346,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -445,30 +356,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -488,26 +375,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -517,25 +400,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -549,14 +415,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -568,117 +434,72 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5A6A5715-ADEA-4363-885B-9C3223A61E25}"/>
   </cellStyles>
@@ -2021,7 +1842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2319,969 +2140,969 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23367F01-28F3-4DEF-BB37-56D14F6E2ADE}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="7" width="16.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="16.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" customWidth="1"/>
     <col min="11" max="252" width="9" style="5"/>
-    <col min="253" max="253" width="9.6640625" style="5" customWidth="1"/>
+    <col min="253" max="253" width="9.7109375" style="5" customWidth="1"/>
     <col min="254" max="254" width="7" style="5" customWidth="1"/>
-    <col min="255" max="255" width="12.33203125" style="5" customWidth="1"/>
-    <col min="256" max="256" width="10.6640625" style="5" customWidth="1"/>
-    <col min="257" max="257" width="10.88671875" style="5" customWidth="1"/>
-    <col min="258" max="258" width="12.6640625" style="5" customWidth="1"/>
-    <col min="259" max="259" width="15.6640625" style="5" customWidth="1"/>
-    <col min="260" max="260" width="14.33203125" style="5" customWidth="1"/>
-    <col min="261" max="261" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="12.5546875" style="5" customWidth="1"/>
-    <col min="263" max="263" width="15.5546875" style="5" customWidth="1"/>
-    <col min="264" max="264" width="17.109375" style="5" customWidth="1"/>
-    <col min="265" max="265" width="6.88671875" style="5" customWidth="1"/>
-    <col min="266" max="266" width="6.6640625" style="5" customWidth="1"/>
+    <col min="255" max="255" width="12.28515625" style="5" customWidth="1"/>
+    <col min="256" max="256" width="10.7109375" style="5" customWidth="1"/>
+    <col min="257" max="257" width="10.85546875" style="5" customWidth="1"/>
+    <col min="258" max="258" width="12.7109375" style="5" customWidth="1"/>
+    <col min="259" max="259" width="15.7109375" style="5" customWidth="1"/>
+    <col min="260" max="260" width="14.28515625" style="5" customWidth="1"/>
+    <col min="261" max="261" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12.5703125" style="5" customWidth="1"/>
+    <col min="263" max="263" width="15.5703125" style="5" customWidth="1"/>
+    <col min="264" max="264" width="17.140625" style="5" customWidth="1"/>
+    <col min="265" max="265" width="6.85546875" style="5" customWidth="1"/>
+    <col min="266" max="266" width="6.7109375" style="5" customWidth="1"/>
     <col min="267" max="508" width="9" style="5"/>
-    <col min="509" max="509" width="9.6640625" style="5" customWidth="1"/>
+    <col min="509" max="509" width="9.7109375" style="5" customWidth="1"/>
     <col min="510" max="510" width="7" style="5" customWidth="1"/>
-    <col min="511" max="511" width="12.33203125" style="5" customWidth="1"/>
-    <col min="512" max="512" width="10.6640625" style="5" customWidth="1"/>
-    <col min="513" max="513" width="10.88671875" style="5" customWidth="1"/>
-    <col min="514" max="514" width="12.6640625" style="5" customWidth="1"/>
-    <col min="515" max="515" width="15.6640625" style="5" customWidth="1"/>
-    <col min="516" max="516" width="14.33203125" style="5" customWidth="1"/>
-    <col min="517" max="517" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="12.5546875" style="5" customWidth="1"/>
-    <col min="519" max="519" width="15.5546875" style="5" customWidth="1"/>
-    <col min="520" max="520" width="17.109375" style="5" customWidth="1"/>
-    <col min="521" max="521" width="6.88671875" style="5" customWidth="1"/>
-    <col min="522" max="522" width="6.6640625" style="5" customWidth="1"/>
+    <col min="511" max="511" width="12.28515625" style="5" customWidth="1"/>
+    <col min="512" max="512" width="10.7109375" style="5" customWidth="1"/>
+    <col min="513" max="513" width="10.85546875" style="5" customWidth="1"/>
+    <col min="514" max="514" width="12.7109375" style="5" customWidth="1"/>
+    <col min="515" max="515" width="15.7109375" style="5" customWidth="1"/>
+    <col min="516" max="516" width="14.28515625" style="5" customWidth="1"/>
+    <col min="517" max="517" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="12.5703125" style="5" customWidth="1"/>
+    <col min="519" max="519" width="15.5703125" style="5" customWidth="1"/>
+    <col min="520" max="520" width="17.140625" style="5" customWidth="1"/>
+    <col min="521" max="521" width="6.85546875" style="5" customWidth="1"/>
+    <col min="522" max="522" width="6.7109375" style="5" customWidth="1"/>
     <col min="523" max="764" width="9" style="5"/>
-    <col min="765" max="765" width="9.6640625" style="5" customWidth="1"/>
+    <col min="765" max="765" width="9.7109375" style="5" customWidth="1"/>
     <col min="766" max="766" width="7" style="5" customWidth="1"/>
-    <col min="767" max="767" width="12.33203125" style="5" customWidth="1"/>
-    <col min="768" max="768" width="10.6640625" style="5" customWidth="1"/>
-    <col min="769" max="769" width="10.88671875" style="5" customWidth="1"/>
-    <col min="770" max="770" width="12.6640625" style="5" customWidth="1"/>
-    <col min="771" max="771" width="15.6640625" style="5" customWidth="1"/>
-    <col min="772" max="772" width="14.33203125" style="5" customWidth="1"/>
-    <col min="773" max="773" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="12.5546875" style="5" customWidth="1"/>
-    <col min="775" max="775" width="15.5546875" style="5" customWidth="1"/>
-    <col min="776" max="776" width="17.109375" style="5" customWidth="1"/>
-    <col min="777" max="777" width="6.88671875" style="5" customWidth="1"/>
-    <col min="778" max="778" width="6.6640625" style="5" customWidth="1"/>
+    <col min="767" max="767" width="12.28515625" style="5" customWidth="1"/>
+    <col min="768" max="768" width="10.7109375" style="5" customWidth="1"/>
+    <col min="769" max="769" width="10.85546875" style="5" customWidth="1"/>
+    <col min="770" max="770" width="12.7109375" style="5" customWidth="1"/>
+    <col min="771" max="771" width="15.7109375" style="5" customWidth="1"/>
+    <col min="772" max="772" width="14.28515625" style="5" customWidth="1"/>
+    <col min="773" max="773" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="12.5703125" style="5" customWidth="1"/>
+    <col min="775" max="775" width="15.5703125" style="5" customWidth="1"/>
+    <col min="776" max="776" width="17.140625" style="5" customWidth="1"/>
+    <col min="777" max="777" width="6.85546875" style="5" customWidth="1"/>
+    <col min="778" max="778" width="6.7109375" style="5" customWidth="1"/>
     <col min="779" max="1020" width="9" style="5"/>
-    <col min="1021" max="1021" width="9.6640625" style="5" customWidth="1"/>
+    <col min="1021" max="1021" width="9.7109375" style="5" customWidth="1"/>
     <col min="1022" max="1022" width="7" style="5" customWidth="1"/>
-    <col min="1023" max="1023" width="12.33203125" style="5" customWidth="1"/>
-    <col min="1024" max="1024" width="10.6640625" style="5" customWidth="1"/>
-    <col min="1025" max="1025" width="10.88671875" style="5" customWidth="1"/>
-    <col min="1026" max="1026" width="12.6640625" style="5" customWidth="1"/>
-    <col min="1027" max="1027" width="15.6640625" style="5" customWidth="1"/>
-    <col min="1028" max="1028" width="14.33203125" style="5" customWidth="1"/>
-    <col min="1029" max="1029" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.5546875" style="5" customWidth="1"/>
-    <col min="1031" max="1031" width="15.5546875" style="5" customWidth="1"/>
-    <col min="1032" max="1032" width="17.109375" style="5" customWidth="1"/>
-    <col min="1033" max="1033" width="6.88671875" style="5" customWidth="1"/>
-    <col min="1034" max="1034" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1023" max="1023" width="12.28515625" style="5" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1025" max="1025" width="10.85546875" style="5" customWidth="1"/>
+    <col min="1026" max="1026" width="12.7109375" style="5" customWidth="1"/>
+    <col min="1027" max="1027" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1028" max="1028" width="14.28515625" style="5" customWidth="1"/>
+    <col min="1029" max="1029" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.5703125" style="5" customWidth="1"/>
+    <col min="1031" max="1031" width="15.5703125" style="5" customWidth="1"/>
+    <col min="1032" max="1032" width="17.140625" style="5" customWidth="1"/>
+    <col min="1033" max="1033" width="6.85546875" style="5" customWidth="1"/>
+    <col min="1034" max="1034" width="6.7109375" style="5" customWidth="1"/>
     <col min="1035" max="1276" width="9" style="5"/>
-    <col min="1277" max="1277" width="9.6640625" style="5" customWidth="1"/>
+    <col min="1277" max="1277" width="9.7109375" style="5" customWidth="1"/>
     <col min="1278" max="1278" width="7" style="5" customWidth="1"/>
-    <col min="1279" max="1279" width="12.33203125" style="5" customWidth="1"/>
-    <col min="1280" max="1280" width="10.6640625" style="5" customWidth="1"/>
-    <col min="1281" max="1281" width="10.88671875" style="5" customWidth="1"/>
-    <col min="1282" max="1282" width="12.6640625" style="5" customWidth="1"/>
-    <col min="1283" max="1283" width="15.6640625" style="5" customWidth="1"/>
-    <col min="1284" max="1284" width="14.33203125" style="5" customWidth="1"/>
-    <col min="1285" max="1285" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.5546875" style="5" customWidth="1"/>
-    <col min="1287" max="1287" width="15.5546875" style="5" customWidth="1"/>
-    <col min="1288" max="1288" width="17.109375" style="5" customWidth="1"/>
-    <col min="1289" max="1289" width="6.88671875" style="5" customWidth="1"/>
-    <col min="1290" max="1290" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1279" max="1279" width="12.28515625" style="5" customWidth="1"/>
+    <col min="1280" max="1280" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1281" max="1281" width="10.85546875" style="5" customWidth="1"/>
+    <col min="1282" max="1282" width="12.7109375" style="5" customWidth="1"/>
+    <col min="1283" max="1283" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1284" max="1284" width="14.28515625" style="5" customWidth="1"/>
+    <col min="1285" max="1285" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.5703125" style="5" customWidth="1"/>
+    <col min="1287" max="1287" width="15.5703125" style="5" customWidth="1"/>
+    <col min="1288" max="1288" width="17.140625" style="5" customWidth="1"/>
+    <col min="1289" max="1289" width="6.85546875" style="5" customWidth="1"/>
+    <col min="1290" max="1290" width="6.7109375" style="5" customWidth="1"/>
     <col min="1291" max="1532" width="9" style="5"/>
-    <col min="1533" max="1533" width="9.6640625" style="5" customWidth="1"/>
+    <col min="1533" max="1533" width="9.7109375" style="5" customWidth="1"/>
     <col min="1534" max="1534" width="7" style="5" customWidth="1"/>
-    <col min="1535" max="1535" width="12.33203125" style="5" customWidth="1"/>
-    <col min="1536" max="1536" width="10.6640625" style="5" customWidth="1"/>
-    <col min="1537" max="1537" width="10.88671875" style="5" customWidth="1"/>
-    <col min="1538" max="1538" width="12.6640625" style="5" customWidth="1"/>
-    <col min="1539" max="1539" width="15.6640625" style="5" customWidth="1"/>
-    <col min="1540" max="1540" width="14.33203125" style="5" customWidth="1"/>
-    <col min="1541" max="1541" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.5546875" style="5" customWidth="1"/>
-    <col min="1543" max="1543" width="15.5546875" style="5" customWidth="1"/>
-    <col min="1544" max="1544" width="17.109375" style="5" customWidth="1"/>
-    <col min="1545" max="1545" width="6.88671875" style="5" customWidth="1"/>
-    <col min="1546" max="1546" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1535" max="1535" width="12.28515625" style="5" customWidth="1"/>
+    <col min="1536" max="1536" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1537" max="1537" width="10.85546875" style="5" customWidth="1"/>
+    <col min="1538" max="1538" width="12.7109375" style="5" customWidth="1"/>
+    <col min="1539" max="1539" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1540" max="1540" width="14.28515625" style="5" customWidth="1"/>
+    <col min="1541" max="1541" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.5703125" style="5" customWidth="1"/>
+    <col min="1543" max="1543" width="15.5703125" style="5" customWidth="1"/>
+    <col min="1544" max="1544" width="17.140625" style="5" customWidth="1"/>
+    <col min="1545" max="1545" width="6.85546875" style="5" customWidth="1"/>
+    <col min="1546" max="1546" width="6.7109375" style="5" customWidth="1"/>
     <col min="1547" max="1788" width="9" style="5"/>
-    <col min="1789" max="1789" width="9.6640625" style="5" customWidth="1"/>
+    <col min="1789" max="1789" width="9.7109375" style="5" customWidth="1"/>
     <col min="1790" max="1790" width="7" style="5" customWidth="1"/>
-    <col min="1791" max="1791" width="12.33203125" style="5" customWidth="1"/>
-    <col min="1792" max="1792" width="10.6640625" style="5" customWidth="1"/>
-    <col min="1793" max="1793" width="10.88671875" style="5" customWidth="1"/>
-    <col min="1794" max="1794" width="12.6640625" style="5" customWidth="1"/>
-    <col min="1795" max="1795" width="15.6640625" style="5" customWidth="1"/>
-    <col min="1796" max="1796" width="14.33203125" style="5" customWidth="1"/>
-    <col min="1797" max="1797" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.5546875" style="5" customWidth="1"/>
-    <col min="1799" max="1799" width="15.5546875" style="5" customWidth="1"/>
-    <col min="1800" max="1800" width="17.109375" style="5" customWidth="1"/>
-    <col min="1801" max="1801" width="6.88671875" style="5" customWidth="1"/>
-    <col min="1802" max="1802" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1791" max="1791" width="12.28515625" style="5" customWidth="1"/>
+    <col min="1792" max="1792" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1793" max="1793" width="10.85546875" style="5" customWidth="1"/>
+    <col min="1794" max="1794" width="12.7109375" style="5" customWidth="1"/>
+    <col min="1795" max="1795" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1796" max="1796" width="14.28515625" style="5" customWidth="1"/>
+    <col min="1797" max="1797" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.5703125" style="5" customWidth="1"/>
+    <col min="1799" max="1799" width="15.5703125" style="5" customWidth="1"/>
+    <col min="1800" max="1800" width="17.140625" style="5" customWidth="1"/>
+    <col min="1801" max="1801" width="6.85546875" style="5" customWidth="1"/>
+    <col min="1802" max="1802" width="6.7109375" style="5" customWidth="1"/>
     <col min="1803" max="2044" width="9" style="5"/>
-    <col min="2045" max="2045" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2045" max="2045" width="9.7109375" style="5" customWidth="1"/>
     <col min="2046" max="2046" width="7" style="5" customWidth="1"/>
-    <col min="2047" max="2047" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2048" max="2048" width="10.6640625" style="5" customWidth="1"/>
-    <col min="2049" max="2049" width="10.88671875" style="5" customWidth="1"/>
-    <col min="2050" max="2050" width="12.6640625" style="5" customWidth="1"/>
-    <col min="2051" max="2051" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2052" max="2052" width="14.33203125" style="5" customWidth="1"/>
-    <col min="2053" max="2053" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.5546875" style="5" customWidth="1"/>
-    <col min="2055" max="2055" width="15.5546875" style="5" customWidth="1"/>
-    <col min="2056" max="2056" width="17.109375" style="5" customWidth="1"/>
-    <col min="2057" max="2057" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2058" max="2058" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2047" max="2047" width="12.28515625" style="5" customWidth="1"/>
+    <col min="2048" max="2048" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2049" max="2049" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2050" max="2050" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2051" max="2051" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2052" max="2052" width="14.28515625" style="5" customWidth="1"/>
+    <col min="2053" max="2053" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.5703125" style="5" customWidth="1"/>
+    <col min="2055" max="2055" width="15.5703125" style="5" customWidth="1"/>
+    <col min="2056" max="2056" width="17.140625" style="5" customWidth="1"/>
+    <col min="2057" max="2057" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2058" max="2058" width="6.7109375" style="5" customWidth="1"/>
     <col min="2059" max="2300" width="9" style="5"/>
-    <col min="2301" max="2301" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2301" max="2301" width="9.7109375" style="5" customWidth="1"/>
     <col min="2302" max="2302" width="7" style="5" customWidth="1"/>
-    <col min="2303" max="2303" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2304" max="2304" width="10.6640625" style="5" customWidth="1"/>
-    <col min="2305" max="2305" width="10.88671875" style="5" customWidth="1"/>
-    <col min="2306" max="2306" width="12.6640625" style="5" customWidth="1"/>
-    <col min="2307" max="2307" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2308" max="2308" width="14.33203125" style="5" customWidth="1"/>
-    <col min="2309" max="2309" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.5546875" style="5" customWidth="1"/>
-    <col min="2311" max="2311" width="15.5546875" style="5" customWidth="1"/>
-    <col min="2312" max="2312" width="17.109375" style="5" customWidth="1"/>
-    <col min="2313" max="2313" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2314" max="2314" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2303" max="2303" width="12.28515625" style="5" customWidth="1"/>
+    <col min="2304" max="2304" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2305" max="2305" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2306" max="2306" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2307" max="2307" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2308" max="2308" width="14.28515625" style="5" customWidth="1"/>
+    <col min="2309" max="2309" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.5703125" style="5" customWidth="1"/>
+    <col min="2311" max="2311" width="15.5703125" style="5" customWidth="1"/>
+    <col min="2312" max="2312" width="17.140625" style="5" customWidth="1"/>
+    <col min="2313" max="2313" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2314" max="2314" width="6.7109375" style="5" customWidth="1"/>
     <col min="2315" max="2556" width="9" style="5"/>
-    <col min="2557" max="2557" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2557" max="2557" width="9.7109375" style="5" customWidth="1"/>
     <col min="2558" max="2558" width="7" style="5" customWidth="1"/>
-    <col min="2559" max="2559" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2560" max="2560" width="10.6640625" style="5" customWidth="1"/>
-    <col min="2561" max="2561" width="10.88671875" style="5" customWidth="1"/>
-    <col min="2562" max="2562" width="12.6640625" style="5" customWidth="1"/>
-    <col min="2563" max="2563" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2564" max="2564" width="14.33203125" style="5" customWidth="1"/>
-    <col min="2565" max="2565" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.5546875" style="5" customWidth="1"/>
-    <col min="2567" max="2567" width="15.5546875" style="5" customWidth="1"/>
-    <col min="2568" max="2568" width="17.109375" style="5" customWidth="1"/>
-    <col min="2569" max="2569" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2570" max="2570" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2559" max="2559" width="12.28515625" style="5" customWidth="1"/>
+    <col min="2560" max="2560" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2561" max="2561" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2562" max="2562" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2563" max="2563" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2564" max="2564" width="14.28515625" style="5" customWidth="1"/>
+    <col min="2565" max="2565" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.5703125" style="5" customWidth="1"/>
+    <col min="2567" max="2567" width="15.5703125" style="5" customWidth="1"/>
+    <col min="2568" max="2568" width="17.140625" style="5" customWidth="1"/>
+    <col min="2569" max="2569" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2570" max="2570" width="6.7109375" style="5" customWidth="1"/>
     <col min="2571" max="2812" width="9" style="5"/>
-    <col min="2813" max="2813" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2813" max="2813" width="9.7109375" style="5" customWidth="1"/>
     <col min="2814" max="2814" width="7" style="5" customWidth="1"/>
-    <col min="2815" max="2815" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2816" max="2816" width="10.6640625" style="5" customWidth="1"/>
-    <col min="2817" max="2817" width="10.88671875" style="5" customWidth="1"/>
-    <col min="2818" max="2818" width="12.6640625" style="5" customWidth="1"/>
-    <col min="2819" max="2819" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2820" max="2820" width="14.33203125" style="5" customWidth="1"/>
-    <col min="2821" max="2821" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.5546875" style="5" customWidth="1"/>
-    <col min="2823" max="2823" width="15.5546875" style="5" customWidth="1"/>
-    <col min="2824" max="2824" width="17.109375" style="5" customWidth="1"/>
-    <col min="2825" max="2825" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2826" max="2826" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2815" max="2815" width="12.28515625" style="5" customWidth="1"/>
+    <col min="2816" max="2816" width="10.7109375" style="5" customWidth="1"/>
+    <col min="2817" max="2817" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2818" max="2818" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2819" max="2819" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2820" max="2820" width="14.28515625" style="5" customWidth="1"/>
+    <col min="2821" max="2821" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.5703125" style="5" customWidth="1"/>
+    <col min="2823" max="2823" width="15.5703125" style="5" customWidth="1"/>
+    <col min="2824" max="2824" width="17.140625" style="5" customWidth="1"/>
+    <col min="2825" max="2825" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2826" max="2826" width="6.7109375" style="5" customWidth="1"/>
     <col min="2827" max="3068" width="9" style="5"/>
-    <col min="3069" max="3069" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3069" max="3069" width="9.7109375" style="5" customWidth="1"/>
     <col min="3070" max="3070" width="7" style="5" customWidth="1"/>
-    <col min="3071" max="3071" width="12.33203125" style="5" customWidth="1"/>
-    <col min="3072" max="3072" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3073" max="3073" width="10.88671875" style="5" customWidth="1"/>
-    <col min="3074" max="3074" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3075" max="3075" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3076" max="3076" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3077" max="3077" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.5546875" style="5" customWidth="1"/>
-    <col min="3079" max="3079" width="15.5546875" style="5" customWidth="1"/>
-    <col min="3080" max="3080" width="17.109375" style="5" customWidth="1"/>
-    <col min="3081" max="3081" width="6.88671875" style="5" customWidth="1"/>
-    <col min="3082" max="3082" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3071" max="3071" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3072" max="3072" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3073" max="3073" width="10.85546875" style="5" customWidth="1"/>
+    <col min="3074" max="3074" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3075" max="3075" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3076" max="3076" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3077" max="3077" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3079" max="3079" width="15.5703125" style="5" customWidth="1"/>
+    <col min="3080" max="3080" width="17.140625" style="5" customWidth="1"/>
+    <col min="3081" max="3081" width="6.85546875" style="5" customWidth="1"/>
+    <col min="3082" max="3082" width="6.7109375" style="5" customWidth="1"/>
     <col min="3083" max="3324" width="9" style="5"/>
-    <col min="3325" max="3325" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3325" max="3325" width="9.7109375" style="5" customWidth="1"/>
     <col min="3326" max="3326" width="7" style="5" customWidth="1"/>
-    <col min="3327" max="3327" width="12.33203125" style="5" customWidth="1"/>
-    <col min="3328" max="3328" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3329" max="3329" width="10.88671875" style="5" customWidth="1"/>
-    <col min="3330" max="3330" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3331" max="3331" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3332" max="3332" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3333" max="3333" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.5546875" style="5" customWidth="1"/>
-    <col min="3335" max="3335" width="15.5546875" style="5" customWidth="1"/>
-    <col min="3336" max="3336" width="17.109375" style="5" customWidth="1"/>
-    <col min="3337" max="3337" width="6.88671875" style="5" customWidth="1"/>
-    <col min="3338" max="3338" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3327" max="3327" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3328" max="3328" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3329" max="3329" width="10.85546875" style="5" customWidth="1"/>
+    <col min="3330" max="3330" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3331" max="3331" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3332" max="3332" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3333" max="3333" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3335" max="3335" width="15.5703125" style="5" customWidth="1"/>
+    <col min="3336" max="3336" width="17.140625" style="5" customWidth="1"/>
+    <col min="3337" max="3337" width="6.85546875" style="5" customWidth="1"/>
+    <col min="3338" max="3338" width="6.7109375" style="5" customWidth="1"/>
     <col min="3339" max="3580" width="9" style="5"/>
-    <col min="3581" max="3581" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3581" max="3581" width="9.7109375" style="5" customWidth="1"/>
     <col min="3582" max="3582" width="7" style="5" customWidth="1"/>
-    <col min="3583" max="3583" width="12.33203125" style="5" customWidth="1"/>
-    <col min="3584" max="3584" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3585" max="3585" width="10.88671875" style="5" customWidth="1"/>
-    <col min="3586" max="3586" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3587" max="3587" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3588" max="3588" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3589" max="3589" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.5546875" style="5" customWidth="1"/>
-    <col min="3591" max="3591" width="15.5546875" style="5" customWidth="1"/>
-    <col min="3592" max="3592" width="17.109375" style="5" customWidth="1"/>
-    <col min="3593" max="3593" width="6.88671875" style="5" customWidth="1"/>
-    <col min="3594" max="3594" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3583" max="3583" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3584" max="3584" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3585" max="3585" width="10.85546875" style="5" customWidth="1"/>
+    <col min="3586" max="3586" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3587" max="3587" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3588" max="3588" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3589" max="3589" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3591" max="3591" width="15.5703125" style="5" customWidth="1"/>
+    <col min="3592" max="3592" width="17.140625" style="5" customWidth="1"/>
+    <col min="3593" max="3593" width="6.85546875" style="5" customWidth="1"/>
+    <col min="3594" max="3594" width="6.7109375" style="5" customWidth="1"/>
     <col min="3595" max="3836" width="9" style="5"/>
-    <col min="3837" max="3837" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3837" max="3837" width="9.7109375" style="5" customWidth="1"/>
     <col min="3838" max="3838" width="7" style="5" customWidth="1"/>
-    <col min="3839" max="3839" width="12.33203125" style="5" customWidth="1"/>
-    <col min="3840" max="3840" width="10.6640625" style="5" customWidth="1"/>
-    <col min="3841" max="3841" width="10.88671875" style="5" customWidth="1"/>
-    <col min="3842" max="3842" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3843" max="3843" width="15.6640625" style="5" customWidth="1"/>
-    <col min="3844" max="3844" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3845" max="3845" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.5546875" style="5" customWidth="1"/>
-    <col min="3847" max="3847" width="15.5546875" style="5" customWidth="1"/>
-    <col min="3848" max="3848" width="17.109375" style="5" customWidth="1"/>
-    <col min="3849" max="3849" width="6.88671875" style="5" customWidth="1"/>
-    <col min="3850" max="3850" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3839" max="3839" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3840" max="3840" width="10.7109375" style="5" customWidth="1"/>
+    <col min="3841" max="3841" width="10.85546875" style="5" customWidth="1"/>
+    <col min="3842" max="3842" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3843" max="3843" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3844" max="3844" width="14.28515625" style="5" customWidth="1"/>
+    <col min="3845" max="3845" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3847" max="3847" width="15.5703125" style="5" customWidth="1"/>
+    <col min="3848" max="3848" width="17.140625" style="5" customWidth="1"/>
+    <col min="3849" max="3849" width="6.85546875" style="5" customWidth="1"/>
+    <col min="3850" max="3850" width="6.7109375" style="5" customWidth="1"/>
     <col min="3851" max="4092" width="9" style="5"/>
-    <col min="4093" max="4093" width="9.6640625" style="5" customWidth="1"/>
+    <col min="4093" max="4093" width="9.7109375" style="5" customWidth="1"/>
     <col min="4094" max="4094" width="7" style="5" customWidth="1"/>
-    <col min="4095" max="4095" width="12.33203125" style="5" customWidth="1"/>
-    <col min="4096" max="4096" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4097" max="4097" width="10.88671875" style="5" customWidth="1"/>
-    <col min="4098" max="4098" width="12.6640625" style="5" customWidth="1"/>
-    <col min="4099" max="4099" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4100" max="4100" width="14.33203125" style="5" customWidth="1"/>
-    <col min="4101" max="4101" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.5546875" style="5" customWidth="1"/>
-    <col min="4103" max="4103" width="15.5546875" style="5" customWidth="1"/>
-    <col min="4104" max="4104" width="17.109375" style="5" customWidth="1"/>
-    <col min="4105" max="4105" width="6.88671875" style="5" customWidth="1"/>
-    <col min="4106" max="4106" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4095" max="4095" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4096" max="4096" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4097" max="4097" width="10.85546875" style="5" customWidth="1"/>
+    <col min="4098" max="4098" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4099" max="4099" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4100" max="4100" width="14.28515625" style="5" customWidth="1"/>
+    <col min="4101" max="4101" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.5703125" style="5" customWidth="1"/>
+    <col min="4103" max="4103" width="15.5703125" style="5" customWidth="1"/>
+    <col min="4104" max="4104" width="17.140625" style="5" customWidth="1"/>
+    <col min="4105" max="4105" width="6.85546875" style="5" customWidth="1"/>
+    <col min="4106" max="4106" width="6.7109375" style="5" customWidth="1"/>
     <col min="4107" max="4348" width="9" style="5"/>
-    <col min="4349" max="4349" width="9.6640625" style="5" customWidth="1"/>
+    <col min="4349" max="4349" width="9.7109375" style="5" customWidth="1"/>
     <col min="4350" max="4350" width="7" style="5" customWidth="1"/>
-    <col min="4351" max="4351" width="12.33203125" style="5" customWidth="1"/>
-    <col min="4352" max="4352" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4353" max="4353" width="10.88671875" style="5" customWidth="1"/>
-    <col min="4354" max="4354" width="12.6640625" style="5" customWidth="1"/>
-    <col min="4355" max="4355" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4356" max="4356" width="14.33203125" style="5" customWidth="1"/>
-    <col min="4357" max="4357" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.5546875" style="5" customWidth="1"/>
-    <col min="4359" max="4359" width="15.5546875" style="5" customWidth="1"/>
-    <col min="4360" max="4360" width="17.109375" style="5" customWidth="1"/>
-    <col min="4361" max="4361" width="6.88671875" style="5" customWidth="1"/>
-    <col min="4362" max="4362" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4351" max="4351" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4352" max="4352" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4353" max="4353" width="10.85546875" style="5" customWidth="1"/>
+    <col min="4354" max="4354" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4355" max="4355" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4356" max="4356" width="14.28515625" style="5" customWidth="1"/>
+    <col min="4357" max="4357" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.5703125" style="5" customWidth="1"/>
+    <col min="4359" max="4359" width="15.5703125" style="5" customWidth="1"/>
+    <col min="4360" max="4360" width="17.140625" style="5" customWidth="1"/>
+    <col min="4361" max="4361" width="6.85546875" style="5" customWidth="1"/>
+    <col min="4362" max="4362" width="6.7109375" style="5" customWidth="1"/>
     <col min="4363" max="4604" width="9" style="5"/>
-    <col min="4605" max="4605" width="9.6640625" style="5" customWidth="1"/>
+    <col min="4605" max="4605" width="9.7109375" style="5" customWidth="1"/>
     <col min="4606" max="4606" width="7" style="5" customWidth="1"/>
-    <col min="4607" max="4607" width="12.33203125" style="5" customWidth="1"/>
-    <col min="4608" max="4608" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4609" max="4609" width="10.88671875" style="5" customWidth="1"/>
-    <col min="4610" max="4610" width="12.6640625" style="5" customWidth="1"/>
-    <col min="4611" max="4611" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4612" max="4612" width="14.33203125" style="5" customWidth="1"/>
-    <col min="4613" max="4613" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.5546875" style="5" customWidth="1"/>
-    <col min="4615" max="4615" width="15.5546875" style="5" customWidth="1"/>
-    <col min="4616" max="4616" width="17.109375" style="5" customWidth="1"/>
-    <col min="4617" max="4617" width="6.88671875" style="5" customWidth="1"/>
-    <col min="4618" max="4618" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4607" max="4607" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4608" max="4608" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4609" max="4609" width="10.85546875" style="5" customWidth="1"/>
+    <col min="4610" max="4610" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4611" max="4611" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4612" max="4612" width="14.28515625" style="5" customWidth="1"/>
+    <col min="4613" max="4613" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.5703125" style="5" customWidth="1"/>
+    <col min="4615" max="4615" width="15.5703125" style="5" customWidth="1"/>
+    <col min="4616" max="4616" width="17.140625" style="5" customWidth="1"/>
+    <col min="4617" max="4617" width="6.85546875" style="5" customWidth="1"/>
+    <col min="4618" max="4618" width="6.7109375" style="5" customWidth="1"/>
     <col min="4619" max="4860" width="9" style="5"/>
-    <col min="4861" max="4861" width="9.6640625" style="5" customWidth="1"/>
+    <col min="4861" max="4861" width="9.7109375" style="5" customWidth="1"/>
     <col min="4862" max="4862" width="7" style="5" customWidth="1"/>
-    <col min="4863" max="4863" width="12.33203125" style="5" customWidth="1"/>
-    <col min="4864" max="4864" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4865" max="4865" width="10.88671875" style="5" customWidth="1"/>
-    <col min="4866" max="4866" width="12.6640625" style="5" customWidth="1"/>
-    <col min="4867" max="4867" width="15.6640625" style="5" customWidth="1"/>
-    <col min="4868" max="4868" width="14.33203125" style="5" customWidth="1"/>
-    <col min="4869" max="4869" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.5546875" style="5" customWidth="1"/>
-    <col min="4871" max="4871" width="15.5546875" style="5" customWidth="1"/>
-    <col min="4872" max="4872" width="17.109375" style="5" customWidth="1"/>
-    <col min="4873" max="4873" width="6.88671875" style="5" customWidth="1"/>
-    <col min="4874" max="4874" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4863" max="4863" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4864" max="4864" width="10.7109375" style="5" customWidth="1"/>
+    <col min="4865" max="4865" width="10.85546875" style="5" customWidth="1"/>
+    <col min="4866" max="4866" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4867" max="4867" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4868" max="4868" width="14.28515625" style="5" customWidth="1"/>
+    <col min="4869" max="4869" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.5703125" style="5" customWidth="1"/>
+    <col min="4871" max="4871" width="15.5703125" style="5" customWidth="1"/>
+    <col min="4872" max="4872" width="17.140625" style="5" customWidth="1"/>
+    <col min="4873" max="4873" width="6.85546875" style="5" customWidth="1"/>
+    <col min="4874" max="4874" width="6.7109375" style="5" customWidth="1"/>
     <col min="4875" max="5116" width="9" style="5"/>
-    <col min="5117" max="5117" width="9.6640625" style="5" customWidth="1"/>
+    <col min="5117" max="5117" width="9.7109375" style="5" customWidth="1"/>
     <col min="5118" max="5118" width="7" style="5" customWidth="1"/>
-    <col min="5119" max="5119" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5120" max="5120" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5121" max="5121" width="10.88671875" style="5" customWidth="1"/>
-    <col min="5122" max="5122" width="12.6640625" style="5" customWidth="1"/>
-    <col min="5123" max="5123" width="15.6640625" style="5" customWidth="1"/>
-    <col min="5124" max="5124" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5125" max="5125" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5127" max="5127" width="15.5546875" style="5" customWidth="1"/>
-    <col min="5128" max="5128" width="17.109375" style="5" customWidth="1"/>
-    <col min="5129" max="5129" width="6.88671875" style="5" customWidth="1"/>
-    <col min="5130" max="5130" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5119" max="5119" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5120" max="5120" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5121" max="5121" width="10.85546875" style="5" customWidth="1"/>
+    <col min="5122" max="5122" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5123" max="5123" width="15.7109375" style="5" customWidth="1"/>
+    <col min="5124" max="5124" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5125" max="5125" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5127" max="5127" width="15.5703125" style="5" customWidth="1"/>
+    <col min="5128" max="5128" width="17.140625" style="5" customWidth="1"/>
+    <col min="5129" max="5129" width="6.85546875" style="5" customWidth="1"/>
+    <col min="5130" max="5130" width="6.7109375" style="5" customWidth="1"/>
     <col min="5131" max="5372" width="9" style="5"/>
-    <col min="5373" max="5373" width="9.6640625" style="5" customWidth="1"/>
+    <col min="5373" max="5373" width="9.7109375" style="5" customWidth="1"/>
     <col min="5374" max="5374" width="7" style="5" customWidth="1"/>
-    <col min="5375" max="5375" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5376" max="5376" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5377" max="5377" width="10.88671875" style="5" customWidth="1"/>
-    <col min="5378" max="5378" width="12.6640625" style="5" customWidth="1"/>
-    <col min="5379" max="5379" width="15.6640625" style="5" customWidth="1"/>
-    <col min="5380" max="5380" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5381" max="5381" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5383" max="5383" width="15.5546875" style="5" customWidth="1"/>
-    <col min="5384" max="5384" width="17.109375" style="5" customWidth="1"/>
-    <col min="5385" max="5385" width="6.88671875" style="5" customWidth="1"/>
-    <col min="5386" max="5386" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5375" max="5375" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5376" max="5376" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5377" max="5377" width="10.85546875" style="5" customWidth="1"/>
+    <col min="5378" max="5378" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5379" max="5379" width="15.7109375" style="5" customWidth="1"/>
+    <col min="5380" max="5380" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5381" max="5381" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5383" max="5383" width="15.5703125" style="5" customWidth="1"/>
+    <col min="5384" max="5384" width="17.140625" style="5" customWidth="1"/>
+    <col min="5385" max="5385" width="6.85546875" style="5" customWidth="1"/>
+    <col min="5386" max="5386" width="6.7109375" style="5" customWidth="1"/>
     <col min="5387" max="5628" width="9" style="5"/>
-    <col min="5629" max="5629" width="9.6640625" style="5" customWidth="1"/>
+    <col min="5629" max="5629" width="9.7109375" style="5" customWidth="1"/>
     <col min="5630" max="5630" width="7" style="5" customWidth="1"/>
-    <col min="5631" max="5631" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5632" max="5632" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5633" max="5633" width="10.88671875" style="5" customWidth="1"/>
-    <col min="5634" max="5634" width="12.6640625" style="5" customWidth="1"/>
-    <col min="5635" max="5635" width="15.6640625" style="5" customWidth="1"/>
-    <col min="5636" max="5636" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5637" max="5637" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5639" max="5639" width="15.5546875" style="5" customWidth="1"/>
-    <col min="5640" max="5640" width="17.109375" style="5" customWidth="1"/>
-    <col min="5641" max="5641" width="6.88671875" style="5" customWidth="1"/>
-    <col min="5642" max="5642" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5631" max="5631" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5632" max="5632" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5633" max="5633" width="10.85546875" style="5" customWidth="1"/>
+    <col min="5634" max="5634" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5635" max="5635" width="15.7109375" style="5" customWidth="1"/>
+    <col min="5636" max="5636" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5637" max="5637" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5639" max="5639" width="15.5703125" style="5" customWidth="1"/>
+    <col min="5640" max="5640" width="17.140625" style="5" customWidth="1"/>
+    <col min="5641" max="5641" width="6.85546875" style="5" customWidth="1"/>
+    <col min="5642" max="5642" width="6.7109375" style="5" customWidth="1"/>
     <col min="5643" max="5884" width="9" style="5"/>
-    <col min="5885" max="5885" width="9.6640625" style="5" customWidth="1"/>
+    <col min="5885" max="5885" width="9.7109375" style="5" customWidth="1"/>
     <col min="5886" max="5886" width="7" style="5" customWidth="1"/>
-    <col min="5887" max="5887" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5888" max="5888" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5889" max="5889" width="10.88671875" style="5" customWidth="1"/>
-    <col min="5890" max="5890" width="12.6640625" style="5" customWidth="1"/>
-    <col min="5891" max="5891" width="15.6640625" style="5" customWidth="1"/>
-    <col min="5892" max="5892" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5893" max="5893" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.5546875" style="5" customWidth="1"/>
-    <col min="5895" max="5895" width="15.5546875" style="5" customWidth="1"/>
-    <col min="5896" max="5896" width="17.109375" style="5" customWidth="1"/>
-    <col min="5897" max="5897" width="6.88671875" style="5" customWidth="1"/>
-    <col min="5898" max="5898" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5887" max="5887" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5888" max="5888" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5889" max="5889" width="10.85546875" style="5" customWidth="1"/>
+    <col min="5890" max="5890" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5891" max="5891" width="15.7109375" style="5" customWidth="1"/>
+    <col min="5892" max="5892" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5893" max="5893" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5895" max="5895" width="15.5703125" style="5" customWidth="1"/>
+    <col min="5896" max="5896" width="17.140625" style="5" customWidth="1"/>
+    <col min="5897" max="5897" width="6.85546875" style="5" customWidth="1"/>
+    <col min="5898" max="5898" width="6.7109375" style="5" customWidth="1"/>
     <col min="5899" max="6140" width="9" style="5"/>
-    <col min="6141" max="6141" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6141" max="6141" width="9.7109375" style="5" customWidth="1"/>
     <col min="6142" max="6142" width="7" style="5" customWidth="1"/>
-    <col min="6143" max="6143" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6144" max="6144" width="10.6640625" style="5" customWidth="1"/>
-    <col min="6145" max="6145" width="10.88671875" style="5" customWidth="1"/>
-    <col min="6146" max="6146" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6147" max="6147" width="15.6640625" style="5" customWidth="1"/>
-    <col min="6148" max="6148" width="14.33203125" style="5" customWidth="1"/>
-    <col min="6149" max="6149" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6151" max="6151" width="15.5546875" style="5" customWidth="1"/>
-    <col min="6152" max="6152" width="17.109375" style="5" customWidth="1"/>
-    <col min="6153" max="6153" width="6.88671875" style="5" customWidth="1"/>
-    <col min="6154" max="6154" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6143" max="6143" width="12.28515625" style="5" customWidth="1"/>
+    <col min="6144" max="6144" width="10.7109375" style="5" customWidth="1"/>
+    <col min="6145" max="6145" width="10.85546875" style="5" customWidth="1"/>
+    <col min="6146" max="6146" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6147" max="6147" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6148" max="6148" width="14.28515625" style="5" customWidth="1"/>
+    <col min="6149" max="6149" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6151" max="6151" width="15.5703125" style="5" customWidth="1"/>
+    <col min="6152" max="6152" width="17.140625" style="5" customWidth="1"/>
+    <col min="6153" max="6153" width="6.85546875" style="5" customWidth="1"/>
+    <col min="6154" max="6154" width="6.7109375" style="5" customWidth="1"/>
     <col min="6155" max="6396" width="9" style="5"/>
-    <col min="6397" max="6397" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6397" max="6397" width="9.7109375" style="5" customWidth="1"/>
     <col min="6398" max="6398" width="7" style="5" customWidth="1"/>
-    <col min="6399" max="6399" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6400" max="6400" width="10.6640625" style="5" customWidth="1"/>
-    <col min="6401" max="6401" width="10.88671875" style="5" customWidth="1"/>
-    <col min="6402" max="6402" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6403" max="6403" width="15.6640625" style="5" customWidth="1"/>
-    <col min="6404" max="6404" width="14.33203125" style="5" customWidth="1"/>
-    <col min="6405" max="6405" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6407" max="6407" width="15.5546875" style="5" customWidth="1"/>
-    <col min="6408" max="6408" width="17.109375" style="5" customWidth="1"/>
-    <col min="6409" max="6409" width="6.88671875" style="5" customWidth="1"/>
-    <col min="6410" max="6410" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6399" max="6399" width="12.28515625" style="5" customWidth="1"/>
+    <col min="6400" max="6400" width="10.7109375" style="5" customWidth="1"/>
+    <col min="6401" max="6401" width="10.85546875" style="5" customWidth="1"/>
+    <col min="6402" max="6402" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6403" max="6403" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6404" max="6404" width="14.28515625" style="5" customWidth="1"/>
+    <col min="6405" max="6405" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6407" max="6407" width="15.5703125" style="5" customWidth="1"/>
+    <col min="6408" max="6408" width="17.140625" style="5" customWidth="1"/>
+    <col min="6409" max="6409" width="6.85546875" style="5" customWidth="1"/>
+    <col min="6410" max="6410" width="6.7109375" style="5" customWidth="1"/>
     <col min="6411" max="6652" width="9" style="5"/>
-    <col min="6653" max="6653" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6653" max="6653" width="9.7109375" style="5" customWidth="1"/>
     <col min="6654" max="6654" width="7" style="5" customWidth="1"/>
-    <col min="6655" max="6655" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6656" max="6656" width="10.6640625" style="5" customWidth="1"/>
-    <col min="6657" max="6657" width="10.88671875" style="5" customWidth="1"/>
-    <col min="6658" max="6658" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6659" max="6659" width="15.6640625" style="5" customWidth="1"/>
-    <col min="6660" max="6660" width="14.33203125" style="5" customWidth="1"/>
-    <col min="6661" max="6661" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6663" max="6663" width="15.5546875" style="5" customWidth="1"/>
-    <col min="6664" max="6664" width="17.109375" style="5" customWidth="1"/>
-    <col min="6665" max="6665" width="6.88671875" style="5" customWidth="1"/>
-    <col min="6666" max="6666" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6655" max="6655" width="12.28515625" style="5" customWidth="1"/>
+    <col min="6656" max="6656" width="10.7109375" style="5" customWidth="1"/>
+    <col min="6657" max="6657" width="10.85546875" style="5" customWidth="1"/>
+    <col min="6658" max="6658" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6659" max="6659" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6660" max="6660" width="14.28515625" style="5" customWidth="1"/>
+    <col min="6661" max="6661" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6663" max="6663" width="15.5703125" style="5" customWidth="1"/>
+    <col min="6664" max="6664" width="17.140625" style="5" customWidth="1"/>
+    <col min="6665" max="6665" width="6.85546875" style="5" customWidth="1"/>
+    <col min="6666" max="6666" width="6.7109375" style="5" customWidth="1"/>
     <col min="6667" max="6908" width="9" style="5"/>
-    <col min="6909" max="6909" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6909" max="6909" width="9.7109375" style="5" customWidth="1"/>
     <col min="6910" max="6910" width="7" style="5" customWidth="1"/>
-    <col min="6911" max="6911" width="12.33203125" style="5" customWidth="1"/>
-    <col min="6912" max="6912" width="10.6640625" style="5" customWidth="1"/>
-    <col min="6913" max="6913" width="10.88671875" style="5" customWidth="1"/>
-    <col min="6914" max="6914" width="12.6640625" style="5" customWidth="1"/>
-    <col min="6915" max="6915" width="15.6640625" style="5" customWidth="1"/>
-    <col min="6916" max="6916" width="14.33203125" style="5" customWidth="1"/>
-    <col min="6917" max="6917" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.5546875" style="5" customWidth="1"/>
-    <col min="6919" max="6919" width="15.5546875" style="5" customWidth="1"/>
-    <col min="6920" max="6920" width="17.109375" style="5" customWidth="1"/>
-    <col min="6921" max="6921" width="6.88671875" style="5" customWidth="1"/>
-    <col min="6922" max="6922" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6911" max="6911" width="12.28515625" style="5" customWidth="1"/>
+    <col min="6912" max="6912" width="10.7109375" style="5" customWidth="1"/>
+    <col min="6913" max="6913" width="10.85546875" style="5" customWidth="1"/>
+    <col min="6914" max="6914" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6915" max="6915" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6916" max="6916" width="14.28515625" style="5" customWidth="1"/>
+    <col min="6917" max="6917" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.5703125" style="5" customWidth="1"/>
+    <col min="6919" max="6919" width="15.5703125" style="5" customWidth="1"/>
+    <col min="6920" max="6920" width="17.140625" style="5" customWidth="1"/>
+    <col min="6921" max="6921" width="6.85546875" style="5" customWidth="1"/>
+    <col min="6922" max="6922" width="6.7109375" style="5" customWidth="1"/>
     <col min="6923" max="7164" width="9" style="5"/>
-    <col min="7165" max="7165" width="9.6640625" style="5" customWidth="1"/>
+    <col min="7165" max="7165" width="9.7109375" style="5" customWidth="1"/>
     <col min="7166" max="7166" width="7" style="5" customWidth="1"/>
-    <col min="7167" max="7167" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7168" max="7168" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7169" max="7169" width="10.88671875" style="5" customWidth="1"/>
-    <col min="7170" max="7170" width="12.6640625" style="5" customWidth="1"/>
-    <col min="7171" max="7171" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7172" max="7172" width="14.33203125" style="5" customWidth="1"/>
-    <col min="7173" max="7173" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.5546875" style="5" customWidth="1"/>
-    <col min="7175" max="7175" width="15.5546875" style="5" customWidth="1"/>
-    <col min="7176" max="7176" width="17.109375" style="5" customWidth="1"/>
-    <col min="7177" max="7177" width="6.88671875" style="5" customWidth="1"/>
-    <col min="7178" max="7178" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7167" max="7167" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7168" max="7168" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7169" max="7169" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7170" max="7170" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7171" max="7171" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7172" max="7172" width="14.28515625" style="5" customWidth="1"/>
+    <col min="7173" max="7173" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.5703125" style="5" customWidth="1"/>
+    <col min="7175" max="7175" width="15.5703125" style="5" customWidth="1"/>
+    <col min="7176" max="7176" width="17.140625" style="5" customWidth="1"/>
+    <col min="7177" max="7177" width="6.85546875" style="5" customWidth="1"/>
+    <col min="7178" max="7178" width="6.7109375" style="5" customWidth="1"/>
     <col min="7179" max="7420" width="9" style="5"/>
-    <col min="7421" max="7421" width="9.6640625" style="5" customWidth="1"/>
+    <col min="7421" max="7421" width="9.7109375" style="5" customWidth="1"/>
     <col min="7422" max="7422" width="7" style="5" customWidth="1"/>
-    <col min="7423" max="7423" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7424" max="7424" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7425" max="7425" width="10.88671875" style="5" customWidth="1"/>
-    <col min="7426" max="7426" width="12.6640625" style="5" customWidth="1"/>
-    <col min="7427" max="7427" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7428" max="7428" width="14.33203125" style="5" customWidth="1"/>
-    <col min="7429" max="7429" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.5546875" style="5" customWidth="1"/>
-    <col min="7431" max="7431" width="15.5546875" style="5" customWidth="1"/>
-    <col min="7432" max="7432" width="17.109375" style="5" customWidth="1"/>
-    <col min="7433" max="7433" width="6.88671875" style="5" customWidth="1"/>
-    <col min="7434" max="7434" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7423" max="7423" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7424" max="7424" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7425" max="7425" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7426" max="7426" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7427" max="7427" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7428" max="7428" width="14.28515625" style="5" customWidth="1"/>
+    <col min="7429" max="7429" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.5703125" style="5" customWidth="1"/>
+    <col min="7431" max="7431" width="15.5703125" style="5" customWidth="1"/>
+    <col min="7432" max="7432" width="17.140625" style="5" customWidth="1"/>
+    <col min="7433" max="7433" width="6.85546875" style="5" customWidth="1"/>
+    <col min="7434" max="7434" width="6.7109375" style="5" customWidth="1"/>
     <col min="7435" max="7676" width="9" style="5"/>
-    <col min="7677" max="7677" width="9.6640625" style="5" customWidth="1"/>
+    <col min="7677" max="7677" width="9.7109375" style="5" customWidth="1"/>
     <col min="7678" max="7678" width="7" style="5" customWidth="1"/>
-    <col min="7679" max="7679" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7680" max="7680" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7681" max="7681" width="10.88671875" style="5" customWidth="1"/>
-    <col min="7682" max="7682" width="12.6640625" style="5" customWidth="1"/>
-    <col min="7683" max="7683" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7684" max="7684" width="14.33203125" style="5" customWidth="1"/>
-    <col min="7685" max="7685" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.5546875" style="5" customWidth="1"/>
-    <col min="7687" max="7687" width="15.5546875" style="5" customWidth="1"/>
-    <col min="7688" max="7688" width="17.109375" style="5" customWidth="1"/>
-    <col min="7689" max="7689" width="6.88671875" style="5" customWidth="1"/>
-    <col min="7690" max="7690" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7679" max="7679" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7680" max="7680" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7681" max="7681" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7682" max="7682" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7683" max="7683" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7684" max="7684" width="14.28515625" style="5" customWidth="1"/>
+    <col min="7685" max="7685" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.5703125" style="5" customWidth="1"/>
+    <col min="7687" max="7687" width="15.5703125" style="5" customWidth="1"/>
+    <col min="7688" max="7688" width="17.140625" style="5" customWidth="1"/>
+    <col min="7689" max="7689" width="6.85546875" style="5" customWidth="1"/>
+    <col min="7690" max="7690" width="6.7109375" style="5" customWidth="1"/>
     <col min="7691" max="7932" width="9" style="5"/>
-    <col min="7933" max="7933" width="9.6640625" style="5" customWidth="1"/>
+    <col min="7933" max="7933" width="9.7109375" style="5" customWidth="1"/>
     <col min="7934" max="7934" width="7" style="5" customWidth="1"/>
-    <col min="7935" max="7935" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7936" max="7936" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7937" max="7937" width="10.88671875" style="5" customWidth="1"/>
-    <col min="7938" max="7938" width="12.6640625" style="5" customWidth="1"/>
-    <col min="7939" max="7939" width="15.6640625" style="5" customWidth="1"/>
-    <col min="7940" max="7940" width="14.33203125" style="5" customWidth="1"/>
-    <col min="7941" max="7941" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.5546875" style="5" customWidth="1"/>
-    <col min="7943" max="7943" width="15.5546875" style="5" customWidth="1"/>
-    <col min="7944" max="7944" width="17.109375" style="5" customWidth="1"/>
-    <col min="7945" max="7945" width="6.88671875" style="5" customWidth="1"/>
-    <col min="7946" max="7946" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7935" max="7935" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7936" max="7936" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7937" max="7937" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7938" max="7938" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7939" max="7939" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7940" max="7940" width="14.28515625" style="5" customWidth="1"/>
+    <col min="7941" max="7941" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.5703125" style="5" customWidth="1"/>
+    <col min="7943" max="7943" width="15.5703125" style="5" customWidth="1"/>
+    <col min="7944" max="7944" width="17.140625" style="5" customWidth="1"/>
+    <col min="7945" max="7945" width="6.85546875" style="5" customWidth="1"/>
+    <col min="7946" max="7946" width="6.7109375" style="5" customWidth="1"/>
     <col min="7947" max="8188" width="9" style="5"/>
-    <col min="8189" max="8189" width="9.6640625" style="5" customWidth="1"/>
+    <col min="8189" max="8189" width="9.7109375" style="5" customWidth="1"/>
     <col min="8190" max="8190" width="7" style="5" customWidth="1"/>
-    <col min="8191" max="8191" width="12.33203125" style="5" customWidth="1"/>
-    <col min="8192" max="8192" width="10.6640625" style="5" customWidth="1"/>
-    <col min="8193" max="8193" width="10.88671875" style="5" customWidth="1"/>
-    <col min="8194" max="8194" width="12.6640625" style="5" customWidth="1"/>
-    <col min="8195" max="8195" width="15.6640625" style="5" customWidth="1"/>
-    <col min="8196" max="8196" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8197" max="8197" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.5546875" style="5" customWidth="1"/>
-    <col min="8199" max="8199" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8200" max="8200" width="17.109375" style="5" customWidth="1"/>
-    <col min="8201" max="8201" width="6.88671875" style="5" customWidth="1"/>
-    <col min="8202" max="8202" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8191" max="8191" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8192" max="8192" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8193" max="8193" width="10.85546875" style="5" customWidth="1"/>
+    <col min="8194" max="8194" width="12.7109375" style="5" customWidth="1"/>
+    <col min="8195" max="8195" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8196" max="8196" width="14.28515625" style="5" customWidth="1"/>
+    <col min="8197" max="8197" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.5703125" style="5" customWidth="1"/>
+    <col min="8199" max="8199" width="15.5703125" style="5" customWidth="1"/>
+    <col min="8200" max="8200" width="17.140625" style="5" customWidth="1"/>
+    <col min="8201" max="8201" width="6.85546875" style="5" customWidth="1"/>
+    <col min="8202" max="8202" width="6.7109375" style="5" customWidth="1"/>
     <col min="8203" max="8444" width="9" style="5"/>
-    <col min="8445" max="8445" width="9.6640625" style="5" customWidth="1"/>
+    <col min="8445" max="8445" width="9.7109375" style="5" customWidth="1"/>
     <col min="8446" max="8446" width="7" style="5" customWidth="1"/>
-    <col min="8447" max="8447" width="12.33203125" style="5" customWidth="1"/>
-    <col min="8448" max="8448" width="10.6640625" style="5" customWidth="1"/>
-    <col min="8449" max="8449" width="10.88671875" style="5" customWidth="1"/>
-    <col min="8450" max="8450" width="12.6640625" style="5" customWidth="1"/>
-    <col min="8451" max="8451" width="15.6640625" style="5" customWidth="1"/>
-    <col min="8452" max="8452" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8453" max="8453" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.5546875" style="5" customWidth="1"/>
-    <col min="8455" max="8455" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8456" max="8456" width="17.109375" style="5" customWidth="1"/>
-    <col min="8457" max="8457" width="6.88671875" style="5" customWidth="1"/>
-    <col min="8458" max="8458" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8447" max="8447" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8448" max="8448" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8449" max="8449" width="10.85546875" style="5" customWidth="1"/>
+    <col min="8450" max="8450" width="12.7109375" style="5" customWidth="1"/>
+    <col min="8451" max="8451" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8452" max="8452" width="14.28515625" style="5" customWidth="1"/>
+    <col min="8453" max="8453" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.5703125" style="5" customWidth="1"/>
+    <col min="8455" max="8455" width="15.5703125" style="5" customWidth="1"/>
+    <col min="8456" max="8456" width="17.140625" style="5" customWidth="1"/>
+    <col min="8457" max="8457" width="6.85546875" style="5" customWidth="1"/>
+    <col min="8458" max="8458" width="6.7109375" style="5" customWidth="1"/>
     <col min="8459" max="8700" width="9" style="5"/>
-    <col min="8701" max="8701" width="9.6640625" style="5" customWidth="1"/>
+    <col min="8701" max="8701" width="9.7109375" style="5" customWidth="1"/>
     <col min="8702" max="8702" width="7" style="5" customWidth="1"/>
-    <col min="8703" max="8703" width="12.33203125" style="5" customWidth="1"/>
-    <col min="8704" max="8704" width="10.6640625" style="5" customWidth="1"/>
-    <col min="8705" max="8705" width="10.88671875" style="5" customWidth="1"/>
-    <col min="8706" max="8706" width="12.6640625" style="5" customWidth="1"/>
-    <col min="8707" max="8707" width="15.6640625" style="5" customWidth="1"/>
-    <col min="8708" max="8708" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8709" max="8709" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.5546875" style="5" customWidth="1"/>
-    <col min="8711" max="8711" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8712" max="8712" width="17.109375" style="5" customWidth="1"/>
-    <col min="8713" max="8713" width="6.88671875" style="5" customWidth="1"/>
-    <col min="8714" max="8714" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8703" max="8703" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8704" max="8704" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8705" max="8705" width="10.85546875" style="5" customWidth="1"/>
+    <col min="8706" max="8706" width="12.7109375" style="5" customWidth="1"/>
+    <col min="8707" max="8707" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8708" max="8708" width="14.28515625" style="5" customWidth="1"/>
+    <col min="8709" max="8709" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.5703125" style="5" customWidth="1"/>
+    <col min="8711" max="8711" width="15.5703125" style="5" customWidth="1"/>
+    <col min="8712" max="8712" width="17.140625" style="5" customWidth="1"/>
+    <col min="8713" max="8713" width="6.85546875" style="5" customWidth="1"/>
+    <col min="8714" max="8714" width="6.7109375" style="5" customWidth="1"/>
     <col min="8715" max="8956" width="9" style="5"/>
-    <col min="8957" max="8957" width="9.6640625" style="5" customWidth="1"/>
+    <col min="8957" max="8957" width="9.7109375" style="5" customWidth="1"/>
     <col min="8958" max="8958" width="7" style="5" customWidth="1"/>
-    <col min="8959" max="8959" width="12.33203125" style="5" customWidth="1"/>
-    <col min="8960" max="8960" width="10.6640625" style="5" customWidth="1"/>
-    <col min="8961" max="8961" width="10.88671875" style="5" customWidth="1"/>
-    <col min="8962" max="8962" width="12.6640625" style="5" customWidth="1"/>
-    <col min="8963" max="8963" width="15.6640625" style="5" customWidth="1"/>
-    <col min="8964" max="8964" width="14.33203125" style="5" customWidth="1"/>
-    <col min="8965" max="8965" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.5546875" style="5" customWidth="1"/>
-    <col min="8967" max="8967" width="15.5546875" style="5" customWidth="1"/>
-    <col min="8968" max="8968" width="17.109375" style="5" customWidth="1"/>
-    <col min="8969" max="8969" width="6.88671875" style="5" customWidth="1"/>
-    <col min="8970" max="8970" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8959" max="8959" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8960" max="8960" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8961" max="8961" width="10.85546875" style="5" customWidth="1"/>
+    <col min="8962" max="8962" width="12.7109375" style="5" customWidth="1"/>
+    <col min="8963" max="8963" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8964" max="8964" width="14.28515625" style="5" customWidth="1"/>
+    <col min="8965" max="8965" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.5703125" style="5" customWidth="1"/>
+    <col min="8967" max="8967" width="15.5703125" style="5" customWidth="1"/>
+    <col min="8968" max="8968" width="17.140625" style="5" customWidth="1"/>
+    <col min="8969" max="8969" width="6.85546875" style="5" customWidth="1"/>
+    <col min="8970" max="8970" width="6.7109375" style="5" customWidth="1"/>
     <col min="8971" max="9212" width="9" style="5"/>
-    <col min="9213" max="9213" width="9.6640625" style="5" customWidth="1"/>
+    <col min="9213" max="9213" width="9.7109375" style="5" customWidth="1"/>
     <col min="9214" max="9214" width="7" style="5" customWidth="1"/>
-    <col min="9215" max="9215" width="12.33203125" style="5" customWidth="1"/>
-    <col min="9216" max="9216" width="10.6640625" style="5" customWidth="1"/>
-    <col min="9217" max="9217" width="10.88671875" style="5" customWidth="1"/>
-    <col min="9218" max="9218" width="12.6640625" style="5" customWidth="1"/>
-    <col min="9219" max="9219" width="15.6640625" style="5" customWidth="1"/>
-    <col min="9220" max="9220" width="14.33203125" style="5" customWidth="1"/>
-    <col min="9221" max="9221" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9223" max="9223" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9224" max="9224" width="17.109375" style="5" customWidth="1"/>
-    <col min="9225" max="9225" width="6.88671875" style="5" customWidth="1"/>
-    <col min="9226" max="9226" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9215" max="9215" width="12.28515625" style="5" customWidth="1"/>
+    <col min="9216" max="9216" width="10.7109375" style="5" customWidth="1"/>
+    <col min="9217" max="9217" width="10.85546875" style="5" customWidth="1"/>
+    <col min="9218" max="9218" width="12.7109375" style="5" customWidth="1"/>
+    <col min="9219" max="9219" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9220" max="9220" width="14.28515625" style="5" customWidth="1"/>
+    <col min="9221" max="9221" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9223" max="9223" width="15.5703125" style="5" customWidth="1"/>
+    <col min="9224" max="9224" width="17.140625" style="5" customWidth="1"/>
+    <col min="9225" max="9225" width="6.85546875" style="5" customWidth="1"/>
+    <col min="9226" max="9226" width="6.7109375" style="5" customWidth="1"/>
     <col min="9227" max="9468" width="9" style="5"/>
-    <col min="9469" max="9469" width="9.6640625" style="5" customWidth="1"/>
+    <col min="9469" max="9469" width="9.7109375" style="5" customWidth="1"/>
     <col min="9470" max="9470" width="7" style="5" customWidth="1"/>
-    <col min="9471" max="9471" width="12.33203125" style="5" customWidth="1"/>
-    <col min="9472" max="9472" width="10.6640625" style="5" customWidth="1"/>
-    <col min="9473" max="9473" width="10.88671875" style="5" customWidth="1"/>
-    <col min="9474" max="9474" width="12.6640625" style="5" customWidth="1"/>
-    <col min="9475" max="9475" width="15.6640625" style="5" customWidth="1"/>
-    <col min="9476" max="9476" width="14.33203125" style="5" customWidth="1"/>
-    <col min="9477" max="9477" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9479" max="9479" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9480" max="9480" width="17.109375" style="5" customWidth="1"/>
-    <col min="9481" max="9481" width="6.88671875" style="5" customWidth="1"/>
-    <col min="9482" max="9482" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9471" max="9471" width="12.28515625" style="5" customWidth="1"/>
+    <col min="9472" max="9472" width="10.7109375" style="5" customWidth="1"/>
+    <col min="9473" max="9473" width="10.85546875" style="5" customWidth="1"/>
+    <col min="9474" max="9474" width="12.7109375" style="5" customWidth="1"/>
+    <col min="9475" max="9475" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9476" max="9476" width="14.28515625" style="5" customWidth="1"/>
+    <col min="9477" max="9477" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9479" max="9479" width="15.5703125" style="5" customWidth="1"/>
+    <col min="9480" max="9480" width="17.140625" style="5" customWidth="1"/>
+    <col min="9481" max="9481" width="6.85546875" style="5" customWidth="1"/>
+    <col min="9482" max="9482" width="6.7109375" style="5" customWidth="1"/>
     <col min="9483" max="9724" width="9" style="5"/>
-    <col min="9725" max="9725" width="9.6640625" style="5" customWidth="1"/>
+    <col min="9725" max="9725" width="9.7109375" style="5" customWidth="1"/>
     <col min="9726" max="9726" width="7" style="5" customWidth="1"/>
-    <col min="9727" max="9727" width="12.33203125" style="5" customWidth="1"/>
-    <col min="9728" max="9728" width="10.6640625" style="5" customWidth="1"/>
-    <col min="9729" max="9729" width="10.88671875" style="5" customWidth="1"/>
-    <col min="9730" max="9730" width="12.6640625" style="5" customWidth="1"/>
-    <col min="9731" max="9731" width="15.6640625" style="5" customWidth="1"/>
-    <col min="9732" max="9732" width="14.33203125" style="5" customWidth="1"/>
-    <col min="9733" max="9733" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9735" max="9735" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9736" max="9736" width="17.109375" style="5" customWidth="1"/>
-    <col min="9737" max="9737" width="6.88671875" style="5" customWidth="1"/>
-    <col min="9738" max="9738" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9727" max="9727" width="12.28515625" style="5" customWidth="1"/>
+    <col min="9728" max="9728" width="10.7109375" style="5" customWidth="1"/>
+    <col min="9729" max="9729" width="10.85546875" style="5" customWidth="1"/>
+    <col min="9730" max="9730" width="12.7109375" style="5" customWidth="1"/>
+    <col min="9731" max="9731" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9732" max="9732" width="14.28515625" style="5" customWidth="1"/>
+    <col min="9733" max="9733" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9735" max="9735" width="15.5703125" style="5" customWidth="1"/>
+    <col min="9736" max="9736" width="17.140625" style="5" customWidth="1"/>
+    <col min="9737" max="9737" width="6.85546875" style="5" customWidth="1"/>
+    <col min="9738" max="9738" width="6.7109375" style="5" customWidth="1"/>
     <col min="9739" max="9980" width="9" style="5"/>
-    <col min="9981" max="9981" width="9.6640625" style="5" customWidth="1"/>
+    <col min="9981" max="9981" width="9.7109375" style="5" customWidth="1"/>
     <col min="9982" max="9982" width="7" style="5" customWidth="1"/>
-    <col min="9983" max="9983" width="12.33203125" style="5" customWidth="1"/>
-    <col min="9984" max="9984" width="10.6640625" style="5" customWidth="1"/>
-    <col min="9985" max="9985" width="10.88671875" style="5" customWidth="1"/>
-    <col min="9986" max="9986" width="12.6640625" style="5" customWidth="1"/>
-    <col min="9987" max="9987" width="15.6640625" style="5" customWidth="1"/>
-    <col min="9988" max="9988" width="14.33203125" style="5" customWidth="1"/>
-    <col min="9989" max="9989" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.5546875" style="5" customWidth="1"/>
-    <col min="9991" max="9991" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9992" max="9992" width="17.109375" style="5" customWidth="1"/>
-    <col min="9993" max="9993" width="6.88671875" style="5" customWidth="1"/>
-    <col min="9994" max="9994" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9983" max="9983" width="12.28515625" style="5" customWidth="1"/>
+    <col min="9984" max="9984" width="10.7109375" style="5" customWidth="1"/>
+    <col min="9985" max="9985" width="10.85546875" style="5" customWidth="1"/>
+    <col min="9986" max="9986" width="12.7109375" style="5" customWidth="1"/>
+    <col min="9987" max="9987" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9988" max="9988" width="14.28515625" style="5" customWidth="1"/>
+    <col min="9989" max="9989" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9991" max="9991" width="15.5703125" style="5" customWidth="1"/>
+    <col min="9992" max="9992" width="17.140625" style="5" customWidth="1"/>
+    <col min="9993" max="9993" width="6.85546875" style="5" customWidth="1"/>
+    <col min="9994" max="9994" width="6.7109375" style="5" customWidth="1"/>
     <col min="9995" max="10236" width="9" style="5"/>
-    <col min="10237" max="10237" width="9.6640625" style="5" customWidth="1"/>
+    <col min="10237" max="10237" width="9.7109375" style="5" customWidth="1"/>
     <col min="10238" max="10238" width="7" style="5" customWidth="1"/>
-    <col min="10239" max="10239" width="12.33203125" style="5" customWidth="1"/>
-    <col min="10240" max="10240" width="10.6640625" style="5" customWidth="1"/>
-    <col min="10241" max="10241" width="10.88671875" style="5" customWidth="1"/>
-    <col min="10242" max="10242" width="12.6640625" style="5" customWidth="1"/>
-    <col min="10243" max="10243" width="15.6640625" style="5" customWidth="1"/>
-    <col min="10244" max="10244" width="14.33203125" style="5" customWidth="1"/>
-    <col min="10245" max="10245" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.5546875" style="5" customWidth="1"/>
-    <col min="10247" max="10247" width="15.5546875" style="5" customWidth="1"/>
-    <col min="10248" max="10248" width="17.109375" style="5" customWidth="1"/>
-    <col min="10249" max="10249" width="6.88671875" style="5" customWidth="1"/>
-    <col min="10250" max="10250" width="6.6640625" style="5" customWidth="1"/>
+    <col min="10239" max="10239" width="12.28515625" style="5" customWidth="1"/>
+    <col min="10240" max="10240" width="10.7109375" style="5" customWidth="1"/>
+    <col min="10241" max="10241" width="10.85546875" style="5" customWidth="1"/>
+    <col min="10242" max="10242" width="12.7109375" style="5" customWidth="1"/>
+    <col min="10243" max="10243" width="15.7109375" style="5" customWidth="1"/>
+    <col min="10244" max="10244" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10245" max="10245" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.5703125" style="5" customWidth="1"/>
+    <col min="10247" max="10247" width="15.5703125" style="5" customWidth="1"/>
+    <col min="10248" max="10248" width="17.140625" style="5" customWidth="1"/>
+    <col min="10249" max="10249" width="6.85546875" style="5" customWidth="1"/>
+    <col min="10250" max="10250" width="6.7109375" style="5" customWidth="1"/>
     <col min="10251" max="10492" width="9" style="5"/>
-    <col min="10493" max="10493" width="9.6640625" style="5" customWidth="1"/>
+    <col min="10493" max="10493" width="9.7109375" style="5" customWidth="1"/>
     <col min="10494" max="10494" width="7" style="5" customWidth="1"/>
-    <col min="10495" max="10495" width="12.33203125" style="5" customWidth="1"/>
-    <col min="10496" max="10496" width="10.6640625" style="5" customWidth="1"/>
-    <col min="10497" max="10497" width="10.88671875" style="5" customWidth="1"/>
-    <col min="10498" max="10498" width="12.6640625" style="5" customWidth="1"/>
-    <col min="10499" max="10499" width="15.6640625" style="5" customWidth="1"/>
-    <col min="10500" max="10500" width="14.33203125" style="5" customWidth="1"/>
-    <col min="10501" max="10501" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.5546875" style="5" customWidth="1"/>
-    <col min="10503" max="10503" width="15.5546875" style="5" customWidth="1"/>
-    <col min="10504" max="10504" width="17.109375" style="5" customWidth="1"/>
-    <col min="10505" max="10505" width="6.88671875" style="5" customWidth="1"/>
-    <col min="10506" max="10506" width="6.6640625" style="5" customWidth="1"/>
+    <col min="10495" max="10495" width="12.28515625" style="5" customWidth="1"/>
+    <col min="10496" max="10496" width="10.7109375" style="5" customWidth="1"/>
+    <col min="10497" max="10497" width="10.85546875" style="5" customWidth="1"/>
+    <col min="10498" max="10498" width="12.7109375" style="5" customWidth="1"/>
+    <col min="10499" max="10499" width="15.7109375" style="5" customWidth="1"/>
+    <col min="10500" max="10500" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10501" max="10501" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.5703125" style="5" customWidth="1"/>
+    <col min="10503" max="10503" width="15.5703125" style="5" customWidth="1"/>
+    <col min="10504" max="10504" width="17.140625" style="5" customWidth="1"/>
+    <col min="10505" max="10505" width="6.85546875" style="5" customWidth="1"/>
+    <col min="10506" max="10506" width="6.7109375" style="5" customWidth="1"/>
     <col min="10507" max="10748" width="9" style="5"/>
-    <col min="10749" max="10749" width="9.6640625" style="5" customWidth="1"/>
+    <col min="10749" max="10749" width="9.7109375" style="5" customWidth="1"/>
     <col min="10750" max="10750" width="7" style="5" customWidth="1"/>
-    <col min="10751" max="10751" width="12.33203125" style="5" customWidth="1"/>
-    <col min="10752" max="10752" width="10.6640625" style="5" customWidth="1"/>
-    <col min="10753" max="10753" width="10.88671875" style="5" customWidth="1"/>
-    <col min="10754" max="10754" width="12.6640625" style="5" customWidth="1"/>
-    <col min="10755" max="10755" width="15.6640625" style="5" customWidth="1"/>
-    <col min="10756" max="10756" width="14.33203125" style="5" customWidth="1"/>
-    <col min="10757" max="10757" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.5546875" style="5" customWidth="1"/>
-    <col min="10759" max="10759" width="15.5546875" style="5" customWidth="1"/>
-    <col min="10760" max="10760" width="17.109375" style="5" customWidth="1"/>
-    <col min="10761" max="10761" width="6.88671875" style="5" customWidth="1"/>
-    <col min="10762" max="10762" width="6.6640625" style="5" customWidth="1"/>
+    <col min="10751" max="10751" width="12.28515625" style="5" customWidth="1"/>
+    <col min="10752" max="10752" width="10.7109375" style="5" customWidth="1"/>
+    <col min="10753" max="10753" width="10.85546875" style="5" customWidth="1"/>
+    <col min="10754" max="10754" width="12.7109375" style="5" customWidth="1"/>
+    <col min="10755" max="10755" width="15.7109375" style="5" customWidth="1"/>
+    <col min="10756" max="10756" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10757" max="10757" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.5703125" style="5" customWidth="1"/>
+    <col min="10759" max="10759" width="15.5703125" style="5" customWidth="1"/>
+    <col min="10760" max="10760" width="17.140625" style="5" customWidth="1"/>
+    <col min="10761" max="10761" width="6.85546875" style="5" customWidth="1"/>
+    <col min="10762" max="10762" width="6.7109375" style="5" customWidth="1"/>
     <col min="10763" max="11004" width="9" style="5"/>
-    <col min="11005" max="11005" width="9.6640625" style="5" customWidth="1"/>
+    <col min="11005" max="11005" width="9.7109375" style="5" customWidth="1"/>
     <col min="11006" max="11006" width="7" style="5" customWidth="1"/>
-    <col min="11007" max="11007" width="12.33203125" style="5" customWidth="1"/>
-    <col min="11008" max="11008" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11009" max="11009" width="10.88671875" style="5" customWidth="1"/>
-    <col min="11010" max="11010" width="12.6640625" style="5" customWidth="1"/>
-    <col min="11011" max="11011" width="15.6640625" style="5" customWidth="1"/>
-    <col min="11012" max="11012" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11013" max="11013" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.5546875" style="5" customWidth="1"/>
-    <col min="11015" max="11015" width="15.5546875" style="5" customWidth="1"/>
-    <col min="11016" max="11016" width="17.109375" style="5" customWidth="1"/>
-    <col min="11017" max="11017" width="6.88671875" style="5" customWidth="1"/>
-    <col min="11018" max="11018" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11007" max="11007" width="12.28515625" style="5" customWidth="1"/>
+    <col min="11008" max="11008" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11009" max="11009" width="10.85546875" style="5" customWidth="1"/>
+    <col min="11010" max="11010" width="12.7109375" style="5" customWidth="1"/>
+    <col min="11011" max="11011" width="15.7109375" style="5" customWidth="1"/>
+    <col min="11012" max="11012" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11013" max="11013" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.5703125" style="5" customWidth="1"/>
+    <col min="11015" max="11015" width="15.5703125" style="5" customWidth="1"/>
+    <col min="11016" max="11016" width="17.140625" style="5" customWidth="1"/>
+    <col min="11017" max="11017" width="6.85546875" style="5" customWidth="1"/>
+    <col min="11018" max="11018" width="6.7109375" style="5" customWidth="1"/>
     <col min="11019" max="11260" width="9" style="5"/>
-    <col min="11261" max="11261" width="9.6640625" style="5" customWidth="1"/>
+    <col min="11261" max="11261" width="9.7109375" style="5" customWidth="1"/>
     <col min="11262" max="11262" width="7" style="5" customWidth="1"/>
-    <col min="11263" max="11263" width="12.33203125" style="5" customWidth="1"/>
-    <col min="11264" max="11264" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11265" max="11265" width="10.88671875" style="5" customWidth="1"/>
-    <col min="11266" max="11266" width="12.6640625" style="5" customWidth="1"/>
-    <col min="11267" max="11267" width="15.6640625" style="5" customWidth="1"/>
-    <col min="11268" max="11268" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11269" max="11269" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.5546875" style="5" customWidth="1"/>
-    <col min="11271" max="11271" width="15.5546875" style="5" customWidth="1"/>
-    <col min="11272" max="11272" width="17.109375" style="5" customWidth="1"/>
-    <col min="11273" max="11273" width="6.88671875" style="5" customWidth="1"/>
-    <col min="11274" max="11274" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11263" max="11263" width="12.28515625" style="5" customWidth="1"/>
+    <col min="11264" max="11264" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11265" max="11265" width="10.85546875" style="5" customWidth="1"/>
+    <col min="11266" max="11266" width="12.7109375" style="5" customWidth="1"/>
+    <col min="11267" max="11267" width="15.7109375" style="5" customWidth="1"/>
+    <col min="11268" max="11268" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11269" max="11269" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.5703125" style="5" customWidth="1"/>
+    <col min="11271" max="11271" width="15.5703125" style="5" customWidth="1"/>
+    <col min="11272" max="11272" width="17.140625" style="5" customWidth="1"/>
+    <col min="11273" max="11273" width="6.85546875" style="5" customWidth="1"/>
+    <col min="11274" max="11274" width="6.7109375" style="5" customWidth="1"/>
     <col min="11275" max="11516" width="9" style="5"/>
-    <col min="11517" max="11517" width="9.6640625" style="5" customWidth="1"/>
+    <col min="11517" max="11517" width="9.7109375" style="5" customWidth="1"/>
     <col min="11518" max="11518" width="7" style="5" customWidth="1"/>
-    <col min="11519" max="11519" width="12.33203125" style="5" customWidth="1"/>
-    <col min="11520" max="11520" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11521" max="11521" width="10.88671875" style="5" customWidth="1"/>
-    <col min="11522" max="11522" width="12.6640625" style="5" customWidth="1"/>
-    <col min="11523" max="11523" width="15.6640625" style="5" customWidth="1"/>
-    <col min="11524" max="11524" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11525" max="11525" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.5546875" style="5" customWidth="1"/>
-    <col min="11527" max="11527" width="15.5546875" style="5" customWidth="1"/>
-    <col min="11528" max="11528" width="17.109375" style="5" customWidth="1"/>
-    <col min="11529" max="11529" width="6.88671875" style="5" customWidth="1"/>
-    <col min="11530" max="11530" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11519" max="11519" width="12.28515625" style="5" customWidth="1"/>
+    <col min="11520" max="11520" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11521" max="11521" width="10.85546875" style="5" customWidth="1"/>
+    <col min="11522" max="11522" width="12.7109375" style="5" customWidth="1"/>
+    <col min="11523" max="11523" width="15.7109375" style="5" customWidth="1"/>
+    <col min="11524" max="11524" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11525" max="11525" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.5703125" style="5" customWidth="1"/>
+    <col min="11527" max="11527" width="15.5703125" style="5" customWidth="1"/>
+    <col min="11528" max="11528" width="17.140625" style="5" customWidth="1"/>
+    <col min="11529" max="11529" width="6.85546875" style="5" customWidth="1"/>
+    <col min="11530" max="11530" width="6.7109375" style="5" customWidth="1"/>
     <col min="11531" max="11772" width="9" style="5"/>
-    <col min="11773" max="11773" width="9.6640625" style="5" customWidth="1"/>
+    <col min="11773" max="11773" width="9.7109375" style="5" customWidth="1"/>
     <col min="11774" max="11774" width="7" style="5" customWidth="1"/>
-    <col min="11775" max="11775" width="12.33203125" style="5" customWidth="1"/>
-    <col min="11776" max="11776" width="10.6640625" style="5" customWidth="1"/>
-    <col min="11777" max="11777" width="10.88671875" style="5" customWidth="1"/>
-    <col min="11778" max="11778" width="12.6640625" style="5" customWidth="1"/>
-    <col min="11779" max="11779" width="15.6640625" style="5" customWidth="1"/>
-    <col min="11780" max="11780" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11781" max="11781" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.5546875" style="5" customWidth="1"/>
-    <col min="11783" max="11783" width="15.5546875" style="5" customWidth="1"/>
-    <col min="11784" max="11784" width="17.109375" style="5" customWidth="1"/>
-    <col min="11785" max="11785" width="6.88671875" style="5" customWidth="1"/>
-    <col min="11786" max="11786" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11775" max="11775" width="12.28515625" style="5" customWidth="1"/>
+    <col min="11776" max="11776" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11777" max="11777" width="10.85546875" style="5" customWidth="1"/>
+    <col min="11778" max="11778" width="12.7109375" style="5" customWidth="1"/>
+    <col min="11779" max="11779" width="15.7109375" style="5" customWidth="1"/>
+    <col min="11780" max="11780" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11781" max="11781" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.5703125" style="5" customWidth="1"/>
+    <col min="11783" max="11783" width="15.5703125" style="5" customWidth="1"/>
+    <col min="11784" max="11784" width="17.140625" style="5" customWidth="1"/>
+    <col min="11785" max="11785" width="6.85546875" style="5" customWidth="1"/>
+    <col min="11786" max="11786" width="6.7109375" style="5" customWidth="1"/>
     <col min="11787" max="12028" width="9" style="5"/>
-    <col min="12029" max="12029" width="9.6640625" style="5" customWidth="1"/>
+    <col min="12029" max="12029" width="9.7109375" style="5" customWidth="1"/>
     <col min="12030" max="12030" width="7" style="5" customWidth="1"/>
-    <col min="12031" max="12031" width="12.33203125" style="5" customWidth="1"/>
-    <col min="12032" max="12032" width="10.6640625" style="5" customWidth="1"/>
-    <col min="12033" max="12033" width="10.88671875" style="5" customWidth="1"/>
-    <col min="12034" max="12034" width="12.6640625" style="5" customWidth="1"/>
-    <col min="12035" max="12035" width="15.6640625" style="5" customWidth="1"/>
-    <col min="12036" max="12036" width="14.33203125" style="5" customWidth="1"/>
-    <col min="12037" max="12037" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.5546875" style="5" customWidth="1"/>
-    <col min="12039" max="12039" width="15.5546875" style="5" customWidth="1"/>
-    <col min="12040" max="12040" width="17.109375" style="5" customWidth="1"/>
-    <col min="12041" max="12041" width="6.88671875" style="5" customWidth="1"/>
-    <col min="12042" max="12042" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12031" max="12031" width="12.28515625" style="5" customWidth="1"/>
+    <col min="12032" max="12032" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12033" max="12033" width="10.85546875" style="5" customWidth="1"/>
+    <col min="12034" max="12034" width="12.7109375" style="5" customWidth="1"/>
+    <col min="12035" max="12035" width="15.7109375" style="5" customWidth="1"/>
+    <col min="12036" max="12036" width="14.28515625" style="5" customWidth="1"/>
+    <col min="12037" max="12037" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.5703125" style="5" customWidth="1"/>
+    <col min="12039" max="12039" width="15.5703125" style="5" customWidth="1"/>
+    <col min="12040" max="12040" width="17.140625" style="5" customWidth="1"/>
+    <col min="12041" max="12041" width="6.85546875" style="5" customWidth="1"/>
+    <col min="12042" max="12042" width="6.7109375" style="5" customWidth="1"/>
     <col min="12043" max="12284" width="9" style="5"/>
-    <col min="12285" max="12285" width="9.6640625" style="5" customWidth="1"/>
+    <col min="12285" max="12285" width="9.7109375" style="5" customWidth="1"/>
     <col min="12286" max="12286" width="7" style="5" customWidth="1"/>
-    <col min="12287" max="12287" width="12.33203125" style="5" customWidth="1"/>
-    <col min="12288" max="12288" width="10.6640625" style="5" customWidth="1"/>
-    <col min="12289" max="12289" width="10.88671875" style="5" customWidth="1"/>
-    <col min="12290" max="12290" width="12.6640625" style="5" customWidth="1"/>
-    <col min="12291" max="12291" width="15.6640625" style="5" customWidth="1"/>
-    <col min="12292" max="12292" width="14.33203125" style="5" customWidth="1"/>
-    <col min="12293" max="12293" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.5546875" style="5" customWidth="1"/>
-    <col min="12295" max="12295" width="15.5546875" style="5" customWidth="1"/>
-    <col min="12296" max="12296" width="17.109375" style="5" customWidth="1"/>
-    <col min="12297" max="12297" width="6.88671875" style="5" customWidth="1"/>
-    <col min="12298" max="12298" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12287" max="12287" width="12.28515625" style="5" customWidth="1"/>
+    <col min="12288" max="12288" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12289" max="12289" width="10.85546875" style="5" customWidth="1"/>
+    <col min="12290" max="12290" width="12.7109375" style="5" customWidth="1"/>
+    <col min="12291" max="12291" width="15.7109375" style="5" customWidth="1"/>
+    <col min="12292" max="12292" width="14.28515625" style="5" customWidth="1"/>
+    <col min="12293" max="12293" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.5703125" style="5" customWidth="1"/>
+    <col min="12295" max="12295" width="15.5703125" style="5" customWidth="1"/>
+    <col min="12296" max="12296" width="17.140625" style="5" customWidth="1"/>
+    <col min="12297" max="12297" width="6.85546875" style="5" customWidth="1"/>
+    <col min="12298" max="12298" width="6.7109375" style="5" customWidth="1"/>
     <col min="12299" max="12540" width="9" style="5"/>
-    <col min="12541" max="12541" width="9.6640625" style="5" customWidth="1"/>
+    <col min="12541" max="12541" width="9.7109375" style="5" customWidth="1"/>
     <col min="12542" max="12542" width="7" style="5" customWidth="1"/>
-    <col min="12543" max="12543" width="12.33203125" style="5" customWidth="1"/>
-    <col min="12544" max="12544" width="10.6640625" style="5" customWidth="1"/>
-    <col min="12545" max="12545" width="10.88671875" style="5" customWidth="1"/>
-    <col min="12546" max="12546" width="12.6640625" style="5" customWidth="1"/>
-    <col min="12547" max="12547" width="15.6640625" style="5" customWidth="1"/>
-    <col min="12548" max="12548" width="14.33203125" style="5" customWidth="1"/>
-    <col min="12549" max="12549" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.5546875" style="5" customWidth="1"/>
-    <col min="12551" max="12551" width="15.5546875" style="5" customWidth="1"/>
-    <col min="12552" max="12552" width="17.109375" style="5" customWidth="1"/>
-    <col min="12553" max="12553" width="6.88671875" style="5" customWidth="1"/>
-    <col min="12554" max="12554" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12543" max="12543" width="12.28515625" style="5" customWidth="1"/>
+    <col min="12544" max="12544" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12545" max="12545" width="10.85546875" style="5" customWidth="1"/>
+    <col min="12546" max="12546" width="12.7109375" style="5" customWidth="1"/>
+    <col min="12547" max="12547" width="15.7109375" style="5" customWidth="1"/>
+    <col min="12548" max="12548" width="14.28515625" style="5" customWidth="1"/>
+    <col min="12549" max="12549" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.5703125" style="5" customWidth="1"/>
+    <col min="12551" max="12551" width="15.5703125" style="5" customWidth="1"/>
+    <col min="12552" max="12552" width="17.140625" style="5" customWidth="1"/>
+    <col min="12553" max="12553" width="6.85546875" style="5" customWidth="1"/>
+    <col min="12554" max="12554" width="6.7109375" style="5" customWidth="1"/>
     <col min="12555" max="12796" width="9" style="5"/>
-    <col min="12797" max="12797" width="9.6640625" style="5" customWidth="1"/>
+    <col min="12797" max="12797" width="9.7109375" style="5" customWidth="1"/>
     <col min="12798" max="12798" width="7" style="5" customWidth="1"/>
-    <col min="12799" max="12799" width="12.33203125" style="5" customWidth="1"/>
-    <col min="12800" max="12800" width="10.6640625" style="5" customWidth="1"/>
-    <col min="12801" max="12801" width="10.88671875" style="5" customWidth="1"/>
-    <col min="12802" max="12802" width="12.6640625" style="5" customWidth="1"/>
-    <col min="12803" max="12803" width="15.6640625" style="5" customWidth="1"/>
-    <col min="12804" max="12804" width="14.33203125" style="5" customWidth="1"/>
-    <col min="12805" max="12805" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.5546875" style="5" customWidth="1"/>
-    <col min="12807" max="12807" width="15.5546875" style="5" customWidth="1"/>
-    <col min="12808" max="12808" width="17.109375" style="5" customWidth="1"/>
-    <col min="12809" max="12809" width="6.88671875" style="5" customWidth="1"/>
-    <col min="12810" max="12810" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12799" max="12799" width="12.28515625" style="5" customWidth="1"/>
+    <col min="12800" max="12800" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12801" max="12801" width="10.85546875" style="5" customWidth="1"/>
+    <col min="12802" max="12802" width="12.7109375" style="5" customWidth="1"/>
+    <col min="12803" max="12803" width="15.7109375" style="5" customWidth="1"/>
+    <col min="12804" max="12804" width="14.28515625" style="5" customWidth="1"/>
+    <col min="12805" max="12805" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.5703125" style="5" customWidth="1"/>
+    <col min="12807" max="12807" width="15.5703125" style="5" customWidth="1"/>
+    <col min="12808" max="12808" width="17.140625" style="5" customWidth="1"/>
+    <col min="12809" max="12809" width="6.85546875" style="5" customWidth="1"/>
+    <col min="12810" max="12810" width="6.7109375" style="5" customWidth="1"/>
     <col min="12811" max="13052" width="9" style="5"/>
-    <col min="13053" max="13053" width="9.6640625" style="5" customWidth="1"/>
+    <col min="13053" max="13053" width="9.7109375" style="5" customWidth="1"/>
     <col min="13054" max="13054" width="7" style="5" customWidth="1"/>
-    <col min="13055" max="13055" width="12.33203125" style="5" customWidth="1"/>
-    <col min="13056" max="13056" width="10.6640625" style="5" customWidth="1"/>
-    <col min="13057" max="13057" width="10.88671875" style="5" customWidth="1"/>
-    <col min="13058" max="13058" width="12.6640625" style="5" customWidth="1"/>
-    <col min="13059" max="13059" width="15.6640625" style="5" customWidth="1"/>
-    <col min="13060" max="13060" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13061" max="13061" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.5546875" style="5" customWidth="1"/>
-    <col min="13063" max="13063" width="15.5546875" style="5" customWidth="1"/>
-    <col min="13064" max="13064" width="17.109375" style="5" customWidth="1"/>
-    <col min="13065" max="13065" width="6.88671875" style="5" customWidth="1"/>
-    <col min="13066" max="13066" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13055" max="13055" width="12.28515625" style="5" customWidth="1"/>
+    <col min="13056" max="13056" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13057" max="13057" width="10.85546875" style="5" customWidth="1"/>
+    <col min="13058" max="13058" width="12.7109375" style="5" customWidth="1"/>
+    <col min="13059" max="13059" width="15.7109375" style="5" customWidth="1"/>
+    <col min="13060" max="13060" width="14.28515625" style="5" customWidth="1"/>
+    <col min="13061" max="13061" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.5703125" style="5" customWidth="1"/>
+    <col min="13063" max="13063" width="15.5703125" style="5" customWidth="1"/>
+    <col min="13064" max="13064" width="17.140625" style="5" customWidth="1"/>
+    <col min="13065" max="13065" width="6.85546875" style="5" customWidth="1"/>
+    <col min="13066" max="13066" width="6.7109375" style="5" customWidth="1"/>
     <col min="13067" max="13308" width="9" style="5"/>
-    <col min="13309" max="13309" width="9.6640625" style="5" customWidth="1"/>
+    <col min="13309" max="13309" width="9.7109375" style="5" customWidth="1"/>
     <col min="13310" max="13310" width="7" style="5" customWidth="1"/>
-    <col min="13311" max="13311" width="12.33203125" style="5" customWidth="1"/>
-    <col min="13312" max="13312" width="10.6640625" style="5" customWidth="1"/>
-    <col min="13313" max="13313" width="10.88671875" style="5" customWidth="1"/>
-    <col min="13314" max="13314" width="12.6640625" style="5" customWidth="1"/>
-    <col min="13315" max="13315" width="15.6640625" style="5" customWidth="1"/>
-    <col min="13316" max="13316" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13317" max="13317" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.5546875" style="5" customWidth="1"/>
-    <col min="13319" max="13319" width="15.5546875" style="5" customWidth="1"/>
-    <col min="13320" max="13320" width="17.109375" style="5" customWidth="1"/>
-    <col min="13321" max="13321" width="6.88671875" style="5" customWidth="1"/>
-    <col min="13322" max="13322" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13311" max="13311" width="12.28515625" style="5" customWidth="1"/>
+    <col min="13312" max="13312" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13313" max="13313" width="10.85546875" style="5" customWidth="1"/>
+    <col min="13314" max="13314" width="12.7109375" style="5" customWidth="1"/>
+    <col min="13315" max="13315" width="15.7109375" style="5" customWidth="1"/>
+    <col min="13316" max="13316" width="14.28515625" style="5" customWidth="1"/>
+    <col min="13317" max="13317" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.5703125" style="5" customWidth="1"/>
+    <col min="13319" max="13319" width="15.5703125" style="5" customWidth="1"/>
+    <col min="13320" max="13320" width="17.140625" style="5" customWidth="1"/>
+    <col min="13321" max="13321" width="6.85546875" style="5" customWidth="1"/>
+    <col min="13322" max="13322" width="6.7109375" style="5" customWidth="1"/>
     <col min="13323" max="13564" width="9" style="5"/>
-    <col min="13565" max="13565" width="9.6640625" style="5" customWidth="1"/>
+    <col min="13565" max="13565" width="9.7109375" style="5" customWidth="1"/>
     <col min="13566" max="13566" width="7" style="5" customWidth="1"/>
-    <col min="13567" max="13567" width="12.33203125" style="5" customWidth="1"/>
-    <col min="13568" max="13568" width="10.6640625" style="5" customWidth="1"/>
-    <col min="13569" max="13569" width="10.88671875" style="5" customWidth="1"/>
-    <col min="13570" max="13570" width="12.6640625" style="5" customWidth="1"/>
-    <col min="13571" max="13571" width="15.6640625" style="5" customWidth="1"/>
-    <col min="13572" max="13572" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13573" max="13573" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.5546875" style="5" customWidth="1"/>
-    <col min="13575" max="13575" width="15.5546875" style="5" customWidth="1"/>
-    <col min="13576" max="13576" width="17.109375" style="5" customWidth="1"/>
-    <col min="13577" max="13577" width="6.88671875" style="5" customWidth="1"/>
-    <col min="13578" max="13578" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13567" max="13567" width="12.28515625" style="5" customWidth="1"/>
+    <col min="13568" max="13568" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13569" max="13569" width="10.85546875" style="5" customWidth="1"/>
+    <col min="13570" max="13570" width="12.7109375" style="5" customWidth="1"/>
+    <col min="13571" max="13571" width="15.7109375" style="5" customWidth="1"/>
+    <col min="13572" max="13572" width="14.28515625" style="5" customWidth="1"/>
+    <col min="13573" max="13573" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.5703125" style="5" customWidth="1"/>
+    <col min="13575" max="13575" width="15.5703125" style="5" customWidth="1"/>
+    <col min="13576" max="13576" width="17.140625" style="5" customWidth="1"/>
+    <col min="13577" max="13577" width="6.85546875" style="5" customWidth="1"/>
+    <col min="13578" max="13578" width="6.7109375" style="5" customWidth="1"/>
     <col min="13579" max="13820" width="9" style="5"/>
-    <col min="13821" max="13821" width="9.6640625" style="5" customWidth="1"/>
+    <col min="13821" max="13821" width="9.7109375" style="5" customWidth="1"/>
     <col min="13822" max="13822" width="7" style="5" customWidth="1"/>
-    <col min="13823" max="13823" width="12.33203125" style="5" customWidth="1"/>
-    <col min="13824" max="13824" width="10.6640625" style="5" customWidth="1"/>
-    <col min="13825" max="13825" width="10.88671875" style="5" customWidth="1"/>
-    <col min="13826" max="13826" width="12.6640625" style="5" customWidth="1"/>
-    <col min="13827" max="13827" width="15.6640625" style="5" customWidth="1"/>
-    <col min="13828" max="13828" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13829" max="13829" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.5546875" style="5" customWidth="1"/>
-    <col min="13831" max="13831" width="15.5546875" style="5" customWidth="1"/>
-    <col min="13832" max="13832" width="17.109375" style="5" customWidth="1"/>
-    <col min="13833" max="13833" width="6.88671875" style="5" customWidth="1"/>
-    <col min="13834" max="13834" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13823" max="13823" width="12.28515625" style="5" customWidth="1"/>
+    <col min="13824" max="13824" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13825" max="13825" width="10.85546875" style="5" customWidth="1"/>
+    <col min="13826" max="13826" width="12.7109375" style="5" customWidth="1"/>
+    <col min="13827" max="13827" width="15.7109375" style="5" customWidth="1"/>
+    <col min="13828" max="13828" width="14.28515625" style="5" customWidth="1"/>
+    <col min="13829" max="13829" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.5703125" style="5" customWidth="1"/>
+    <col min="13831" max="13831" width="15.5703125" style="5" customWidth="1"/>
+    <col min="13832" max="13832" width="17.140625" style="5" customWidth="1"/>
+    <col min="13833" max="13833" width="6.85546875" style="5" customWidth="1"/>
+    <col min="13834" max="13834" width="6.7109375" style="5" customWidth="1"/>
     <col min="13835" max="14076" width="9" style="5"/>
-    <col min="14077" max="14077" width="9.6640625" style="5" customWidth="1"/>
+    <col min="14077" max="14077" width="9.7109375" style="5" customWidth="1"/>
     <col min="14078" max="14078" width="7" style="5" customWidth="1"/>
-    <col min="14079" max="14079" width="12.33203125" style="5" customWidth="1"/>
-    <col min="14080" max="14080" width="10.6640625" style="5" customWidth="1"/>
-    <col min="14081" max="14081" width="10.88671875" style="5" customWidth="1"/>
-    <col min="14082" max="14082" width="12.6640625" style="5" customWidth="1"/>
-    <col min="14083" max="14083" width="15.6640625" style="5" customWidth="1"/>
-    <col min="14084" max="14084" width="14.33203125" style="5" customWidth="1"/>
-    <col min="14085" max="14085" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.5546875" style="5" customWidth="1"/>
-    <col min="14087" max="14087" width="15.5546875" style="5" customWidth="1"/>
-    <col min="14088" max="14088" width="17.109375" style="5" customWidth="1"/>
-    <col min="14089" max="14089" width="6.88671875" style="5" customWidth="1"/>
-    <col min="14090" max="14090" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14079" max="14079" width="12.28515625" style="5" customWidth="1"/>
+    <col min="14080" max="14080" width="10.7109375" style="5" customWidth="1"/>
+    <col min="14081" max="14081" width="10.85546875" style="5" customWidth="1"/>
+    <col min="14082" max="14082" width="12.7109375" style="5" customWidth="1"/>
+    <col min="14083" max="14083" width="15.7109375" style="5" customWidth="1"/>
+    <col min="14084" max="14084" width="14.28515625" style="5" customWidth="1"/>
+    <col min="14085" max="14085" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.5703125" style="5" customWidth="1"/>
+    <col min="14087" max="14087" width="15.5703125" style="5" customWidth="1"/>
+    <col min="14088" max="14088" width="17.140625" style="5" customWidth="1"/>
+    <col min="14089" max="14089" width="6.85546875" style="5" customWidth="1"/>
+    <col min="14090" max="14090" width="6.7109375" style="5" customWidth="1"/>
     <col min="14091" max="14332" width="9" style="5"/>
-    <col min="14333" max="14333" width="9.6640625" style="5" customWidth="1"/>
+    <col min="14333" max="14333" width="9.7109375" style="5" customWidth="1"/>
     <col min="14334" max="14334" width="7" style="5" customWidth="1"/>
-    <col min="14335" max="14335" width="12.33203125" style="5" customWidth="1"/>
-    <col min="14336" max="14336" width="10.6640625" style="5" customWidth="1"/>
-    <col min="14337" max="14337" width="10.88671875" style="5" customWidth="1"/>
-    <col min="14338" max="14338" width="12.6640625" style="5" customWidth="1"/>
-    <col min="14339" max="14339" width="15.6640625" style="5" customWidth="1"/>
-    <col min="14340" max="14340" width="14.33203125" style="5" customWidth="1"/>
-    <col min="14341" max="14341" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.5546875" style="5" customWidth="1"/>
-    <col min="14343" max="14343" width="15.5546875" style="5" customWidth="1"/>
-    <col min="14344" max="14344" width="17.109375" style="5" customWidth="1"/>
-    <col min="14345" max="14345" width="6.88671875" style="5" customWidth="1"/>
-    <col min="14346" max="14346" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14335" max="14335" width="12.28515625" style="5" customWidth="1"/>
+    <col min="14336" max="14336" width="10.7109375" style="5" customWidth="1"/>
+    <col min="14337" max="14337" width="10.85546875" style="5" customWidth="1"/>
+    <col min="14338" max="14338" width="12.7109375" style="5" customWidth="1"/>
+    <col min="14339" max="14339" width="15.7109375" style="5" customWidth="1"/>
+    <col min="14340" max="14340" width="14.28515625" style="5" customWidth="1"/>
+    <col min="14341" max="14341" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.5703125" style="5" customWidth="1"/>
+    <col min="14343" max="14343" width="15.5703125" style="5" customWidth="1"/>
+    <col min="14344" max="14344" width="17.140625" style="5" customWidth="1"/>
+    <col min="14345" max="14345" width="6.85546875" style="5" customWidth="1"/>
+    <col min="14346" max="14346" width="6.7109375" style="5" customWidth="1"/>
     <col min="14347" max="14588" width="9" style="5"/>
-    <col min="14589" max="14589" width="9.6640625" style="5" customWidth="1"/>
+    <col min="14589" max="14589" width="9.7109375" style="5" customWidth="1"/>
     <col min="14590" max="14590" width="7" style="5" customWidth="1"/>
-    <col min="14591" max="14591" width="12.33203125" style="5" customWidth="1"/>
-    <col min="14592" max="14592" width="10.6640625" style="5" customWidth="1"/>
-    <col min="14593" max="14593" width="10.88671875" style="5" customWidth="1"/>
-    <col min="14594" max="14594" width="12.6640625" style="5" customWidth="1"/>
-    <col min="14595" max="14595" width="15.6640625" style="5" customWidth="1"/>
-    <col min="14596" max="14596" width="14.33203125" style="5" customWidth="1"/>
-    <col min="14597" max="14597" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.5546875" style="5" customWidth="1"/>
-    <col min="14599" max="14599" width="15.5546875" style="5" customWidth="1"/>
-    <col min="14600" max="14600" width="17.109375" style="5" customWidth="1"/>
-    <col min="14601" max="14601" width="6.88671875" style="5" customWidth="1"/>
-    <col min="14602" max="14602" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14591" max="14591" width="12.28515625" style="5" customWidth="1"/>
+    <col min="14592" max="14592" width="10.7109375" style="5" customWidth="1"/>
+    <col min="14593" max="14593" width="10.85546875" style="5" customWidth="1"/>
+    <col min="14594" max="14594" width="12.7109375" style="5" customWidth="1"/>
+    <col min="14595" max="14595" width="15.7109375" style="5" customWidth="1"/>
+    <col min="14596" max="14596" width="14.28515625" style="5" customWidth="1"/>
+    <col min="14597" max="14597" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.5703125" style="5" customWidth="1"/>
+    <col min="14599" max="14599" width="15.5703125" style="5" customWidth="1"/>
+    <col min="14600" max="14600" width="17.140625" style="5" customWidth="1"/>
+    <col min="14601" max="14601" width="6.85546875" style="5" customWidth="1"/>
+    <col min="14602" max="14602" width="6.7109375" style="5" customWidth="1"/>
     <col min="14603" max="14844" width="9" style="5"/>
-    <col min="14845" max="14845" width="9.6640625" style="5" customWidth="1"/>
+    <col min="14845" max="14845" width="9.7109375" style="5" customWidth="1"/>
     <col min="14846" max="14846" width="7" style="5" customWidth="1"/>
-    <col min="14847" max="14847" width="12.33203125" style="5" customWidth="1"/>
-    <col min="14848" max="14848" width="10.6640625" style="5" customWidth="1"/>
-    <col min="14849" max="14849" width="10.88671875" style="5" customWidth="1"/>
-    <col min="14850" max="14850" width="12.6640625" style="5" customWidth="1"/>
-    <col min="14851" max="14851" width="15.6640625" style="5" customWidth="1"/>
-    <col min="14852" max="14852" width="14.33203125" style="5" customWidth="1"/>
-    <col min="14853" max="14853" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.5546875" style="5" customWidth="1"/>
-    <col min="14855" max="14855" width="15.5546875" style="5" customWidth="1"/>
-    <col min="14856" max="14856" width="17.109375" style="5" customWidth="1"/>
-    <col min="14857" max="14857" width="6.88671875" style="5" customWidth="1"/>
-    <col min="14858" max="14858" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14847" max="14847" width="12.28515625" style="5" customWidth="1"/>
+    <col min="14848" max="14848" width="10.7109375" style="5" customWidth="1"/>
+    <col min="14849" max="14849" width="10.85546875" style="5" customWidth="1"/>
+    <col min="14850" max="14850" width="12.7109375" style="5" customWidth="1"/>
+    <col min="14851" max="14851" width="15.7109375" style="5" customWidth="1"/>
+    <col min="14852" max="14852" width="14.28515625" style="5" customWidth="1"/>
+    <col min="14853" max="14853" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.5703125" style="5" customWidth="1"/>
+    <col min="14855" max="14855" width="15.5703125" style="5" customWidth="1"/>
+    <col min="14856" max="14856" width="17.140625" style="5" customWidth="1"/>
+    <col min="14857" max="14857" width="6.85546875" style="5" customWidth="1"/>
+    <col min="14858" max="14858" width="6.7109375" style="5" customWidth="1"/>
     <col min="14859" max="15100" width="9" style="5"/>
-    <col min="15101" max="15101" width="9.6640625" style="5" customWidth="1"/>
+    <col min="15101" max="15101" width="9.7109375" style="5" customWidth="1"/>
     <col min="15102" max="15102" width="7" style="5" customWidth="1"/>
-    <col min="15103" max="15103" width="12.33203125" style="5" customWidth="1"/>
-    <col min="15104" max="15104" width="10.6640625" style="5" customWidth="1"/>
-    <col min="15105" max="15105" width="10.88671875" style="5" customWidth="1"/>
-    <col min="15106" max="15106" width="12.6640625" style="5" customWidth="1"/>
-    <col min="15107" max="15107" width="15.6640625" style="5" customWidth="1"/>
-    <col min="15108" max="15108" width="14.33203125" style="5" customWidth="1"/>
-    <col min="15109" max="15109" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.5546875" style="5" customWidth="1"/>
-    <col min="15111" max="15111" width="15.5546875" style="5" customWidth="1"/>
-    <col min="15112" max="15112" width="17.109375" style="5" customWidth="1"/>
-    <col min="15113" max="15113" width="6.88671875" style="5" customWidth="1"/>
-    <col min="15114" max="15114" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15103" max="15103" width="12.28515625" style="5" customWidth="1"/>
+    <col min="15104" max="15104" width="10.7109375" style="5" customWidth="1"/>
+    <col min="15105" max="15105" width="10.85546875" style="5" customWidth="1"/>
+    <col min="15106" max="15106" width="12.7109375" style="5" customWidth="1"/>
+    <col min="15107" max="15107" width="15.7109375" style="5" customWidth="1"/>
+    <col min="15108" max="15108" width="14.28515625" style="5" customWidth="1"/>
+    <col min="15109" max="15109" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.5703125" style="5" customWidth="1"/>
+    <col min="15111" max="15111" width="15.5703125" style="5" customWidth="1"/>
+    <col min="15112" max="15112" width="17.140625" style="5" customWidth="1"/>
+    <col min="15113" max="15113" width="6.85546875" style="5" customWidth="1"/>
+    <col min="15114" max="15114" width="6.7109375" style="5" customWidth="1"/>
     <col min="15115" max="15356" width="9" style="5"/>
-    <col min="15357" max="15357" width="9.6640625" style="5" customWidth="1"/>
+    <col min="15357" max="15357" width="9.7109375" style="5" customWidth="1"/>
     <col min="15358" max="15358" width="7" style="5" customWidth="1"/>
-    <col min="15359" max="15359" width="12.33203125" style="5" customWidth="1"/>
-    <col min="15360" max="15360" width="10.6640625" style="5" customWidth="1"/>
-    <col min="15361" max="15361" width="10.88671875" style="5" customWidth="1"/>
-    <col min="15362" max="15362" width="12.6640625" style="5" customWidth="1"/>
-    <col min="15363" max="15363" width="15.6640625" style="5" customWidth="1"/>
-    <col min="15364" max="15364" width="14.33203125" style="5" customWidth="1"/>
-    <col min="15365" max="15365" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.5546875" style="5" customWidth="1"/>
-    <col min="15367" max="15367" width="15.5546875" style="5" customWidth="1"/>
-    <col min="15368" max="15368" width="17.109375" style="5" customWidth="1"/>
-    <col min="15369" max="15369" width="6.88671875" style="5" customWidth="1"/>
-    <col min="15370" max="15370" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15359" max="15359" width="12.28515625" style="5" customWidth="1"/>
+    <col min="15360" max="15360" width="10.7109375" style="5" customWidth="1"/>
+    <col min="15361" max="15361" width="10.85546875" style="5" customWidth="1"/>
+    <col min="15362" max="15362" width="12.7109375" style="5" customWidth="1"/>
+    <col min="15363" max="15363" width="15.7109375" style="5" customWidth="1"/>
+    <col min="15364" max="15364" width="14.28515625" style="5" customWidth="1"/>
+    <col min="15365" max="15365" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.5703125" style="5" customWidth="1"/>
+    <col min="15367" max="15367" width="15.5703125" style="5" customWidth="1"/>
+    <col min="15368" max="15368" width="17.140625" style="5" customWidth="1"/>
+    <col min="15369" max="15369" width="6.85546875" style="5" customWidth="1"/>
+    <col min="15370" max="15370" width="6.7109375" style="5" customWidth="1"/>
     <col min="15371" max="15612" width="9" style="5"/>
-    <col min="15613" max="15613" width="9.6640625" style="5" customWidth="1"/>
+    <col min="15613" max="15613" width="9.7109375" style="5" customWidth="1"/>
     <col min="15614" max="15614" width="7" style="5" customWidth="1"/>
-    <col min="15615" max="15615" width="12.33203125" style="5" customWidth="1"/>
-    <col min="15616" max="15616" width="10.6640625" style="5" customWidth="1"/>
-    <col min="15617" max="15617" width="10.88671875" style="5" customWidth="1"/>
-    <col min="15618" max="15618" width="12.6640625" style="5" customWidth="1"/>
-    <col min="15619" max="15619" width="15.6640625" style="5" customWidth="1"/>
-    <col min="15620" max="15620" width="14.33203125" style="5" customWidth="1"/>
-    <col min="15621" max="15621" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.5546875" style="5" customWidth="1"/>
-    <col min="15623" max="15623" width="15.5546875" style="5" customWidth="1"/>
-    <col min="15624" max="15624" width="17.109375" style="5" customWidth="1"/>
-    <col min="15625" max="15625" width="6.88671875" style="5" customWidth="1"/>
-    <col min="15626" max="15626" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15615" max="15615" width="12.28515625" style="5" customWidth="1"/>
+    <col min="15616" max="15616" width="10.7109375" style="5" customWidth="1"/>
+    <col min="15617" max="15617" width="10.85546875" style="5" customWidth="1"/>
+    <col min="15618" max="15618" width="12.7109375" style="5" customWidth="1"/>
+    <col min="15619" max="15619" width="15.7109375" style="5" customWidth="1"/>
+    <col min="15620" max="15620" width="14.28515625" style="5" customWidth="1"/>
+    <col min="15621" max="15621" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.5703125" style="5" customWidth="1"/>
+    <col min="15623" max="15623" width="15.5703125" style="5" customWidth="1"/>
+    <col min="15624" max="15624" width="17.140625" style="5" customWidth="1"/>
+    <col min="15625" max="15625" width="6.85546875" style="5" customWidth="1"/>
+    <col min="15626" max="15626" width="6.7109375" style="5" customWidth="1"/>
     <col min="15627" max="15868" width="9" style="5"/>
-    <col min="15869" max="15869" width="9.6640625" style="5" customWidth="1"/>
+    <col min="15869" max="15869" width="9.7109375" style="5" customWidth="1"/>
     <col min="15870" max="15870" width="7" style="5" customWidth="1"/>
-    <col min="15871" max="15871" width="12.33203125" style="5" customWidth="1"/>
-    <col min="15872" max="15872" width="10.6640625" style="5" customWidth="1"/>
-    <col min="15873" max="15873" width="10.88671875" style="5" customWidth="1"/>
-    <col min="15874" max="15874" width="12.6640625" style="5" customWidth="1"/>
-    <col min="15875" max="15875" width="15.6640625" style="5" customWidth="1"/>
-    <col min="15876" max="15876" width="14.33203125" style="5" customWidth="1"/>
-    <col min="15877" max="15877" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.5546875" style="5" customWidth="1"/>
-    <col min="15879" max="15879" width="15.5546875" style="5" customWidth="1"/>
-    <col min="15880" max="15880" width="17.109375" style="5" customWidth="1"/>
-    <col min="15881" max="15881" width="6.88671875" style="5" customWidth="1"/>
-    <col min="15882" max="15882" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15871" max="15871" width="12.28515625" style="5" customWidth="1"/>
+    <col min="15872" max="15872" width="10.7109375" style="5" customWidth="1"/>
+    <col min="15873" max="15873" width="10.85546875" style="5" customWidth="1"/>
+    <col min="15874" max="15874" width="12.7109375" style="5" customWidth="1"/>
+    <col min="15875" max="15875" width="15.7109375" style="5" customWidth="1"/>
+    <col min="15876" max="15876" width="14.28515625" style="5" customWidth="1"/>
+    <col min="15877" max="15877" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.5703125" style="5" customWidth="1"/>
+    <col min="15879" max="15879" width="15.5703125" style="5" customWidth="1"/>
+    <col min="15880" max="15880" width="17.140625" style="5" customWidth="1"/>
+    <col min="15881" max="15881" width="6.85546875" style="5" customWidth="1"/>
+    <col min="15882" max="15882" width="6.7109375" style="5" customWidth="1"/>
     <col min="15883" max="16124" width="9" style="5"/>
-    <col min="16125" max="16125" width="9.6640625" style="5" customWidth="1"/>
+    <col min="16125" max="16125" width="9.7109375" style="5" customWidth="1"/>
     <col min="16126" max="16126" width="7" style="5" customWidth="1"/>
-    <col min="16127" max="16127" width="12.33203125" style="5" customWidth="1"/>
-    <col min="16128" max="16128" width="10.6640625" style="5" customWidth="1"/>
-    <col min="16129" max="16129" width="10.88671875" style="5" customWidth="1"/>
-    <col min="16130" max="16130" width="12.6640625" style="5" customWidth="1"/>
-    <col min="16131" max="16131" width="15.6640625" style="5" customWidth="1"/>
-    <col min="16132" max="16132" width="14.33203125" style="5" customWidth="1"/>
-    <col min="16133" max="16133" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.5546875" style="5" customWidth="1"/>
-    <col min="16135" max="16135" width="15.5546875" style="5" customWidth="1"/>
-    <col min="16136" max="16136" width="17.109375" style="5" customWidth="1"/>
-    <col min="16137" max="16137" width="6.88671875" style="5" customWidth="1"/>
-    <col min="16138" max="16138" width="6.6640625" style="5" customWidth="1"/>
+    <col min="16127" max="16127" width="12.28515625" style="5" customWidth="1"/>
+    <col min="16128" max="16128" width="10.7109375" style="5" customWidth="1"/>
+    <col min="16129" max="16129" width="10.85546875" style="5" customWidth="1"/>
+    <col min="16130" max="16130" width="12.7109375" style="5" customWidth="1"/>
+    <col min="16131" max="16131" width="15.7109375" style="5" customWidth="1"/>
+    <col min="16132" max="16132" width="14.28515625" style="5" customWidth="1"/>
+    <col min="16133" max="16133" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.5703125" style="5" customWidth="1"/>
+    <col min="16135" max="16135" width="15.5703125" style="5" customWidth="1"/>
+    <col min="16136" max="16136" width="17.140625" style="5" customWidth="1"/>
+    <col min="16137" max="16137" width="6.85546875" style="5" customWidth="1"/>
+    <col min="16138" max="16138" width="6.7109375" style="5" customWidth="1"/>
     <col min="16139" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.9" customHeight="1">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3289,9 +3110,9 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="19"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
@@ -3301,263 +3122,263 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="40.15" customHeight="1" thickBot="1">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="36" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.15" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" s="43" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" s="43" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" s="43" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" s="43" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="25.95" customHeight="1" thickBot="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.9" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1" ht="14.1" customHeight="1">
       <c r="A22" s="5"/>
